--- a/raw_data/Spanish_WS/[Spanish_WS].xlsx
+++ b/raw_data/Spanish_WS/[Spanish_WS].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="0" windowWidth="19100" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="6500" yWindow="0" windowWidth="19100" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10930" uniqueCount="2333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10930" uniqueCount="2354">
   <si>
     <t>tutu</t>
   </si>
@@ -7020,6 +7020,69 @@
   </si>
   <si>
     <t>stuff</t>
+  </si>
+  <si>
+    <t>peepee</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>firewood</t>
+  </si>
+  <si>
+    <t>flowerpot</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>dirt</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>have_lunch</t>
+  </si>
+  <si>
+    <t>turn_off</t>
+  </si>
+  <si>
+    <t>shut_up</t>
+  </si>
+  <si>
+    <t>have_dinner</t>
+  </si>
+  <si>
+    <t>be_wrong</t>
+  </si>
+  <si>
+    <t>scream</t>
+  </si>
+  <si>
+    <t>put_together</t>
+  </si>
+  <si>
+    <t>put_into</t>
+  </si>
+  <si>
+    <t>turn_on</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>lets_see</t>
   </si>
 </sst>
 </file>
@@ -11572,8 +11635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G768"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="A661" sqref="A661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27694,8 +27757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L893"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="E404" sqref="E404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28133,7 +28196,7 @@
         <v>1985</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>681</v>
+        <v>2333</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>3</v>
@@ -40317,7 +40380,7 @@
         <v>1429</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>681</v>
+        <v>2334</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>268</v>
@@ -40399,7 +40462,7 @@
         <v>1429</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>681</v>
+        <v>2335</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>270</v>
@@ -40522,7 +40585,7 @@
         <v>1429</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>681</v>
+        <v>2336</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>273</v>
@@ -41096,7 +41159,7 @@
         <v>1429</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>681</v>
+        <v>2337</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>286</v>
@@ -41178,7 +41241,7 @@
         <v>1429</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>681</v>
+        <v>2338</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>288</v>
@@ -41219,7 +41282,7 @@
         <v>1429</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>681</v>
+        <v>2339</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>289</v>
@@ -43676,7 +43739,7 @@
         <v>2178</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>681</v>
+        <v>2353</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>2179</v>
@@ -45026,7 +45089,7 @@
         <v>2256</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>681</v>
+        <v>2340</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>455</v>
@@ -45149,7 +45212,7 @@
         <v>2256</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>681</v>
+        <v>2341</v>
       </c>
       <c r="F427" s="3" t="s">
         <v>458</v>
@@ -45723,7 +45786,7 @@
         <v>2256</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>681</v>
+        <v>2342</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>2224</v>
@@ -45887,7 +45950,7 @@
         <v>2256</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>681</v>
+        <v>2343</v>
       </c>
       <c r="F445" s="3" t="s">
         <v>476</v>
@@ -46584,7 +46647,7 @@
         <v>2256</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>681</v>
+        <v>2344</v>
       </c>
       <c r="F462" s="3" t="s">
         <v>2234</v>
@@ -46830,7 +46893,7 @@
         <v>2256</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>681</v>
+        <v>2345</v>
       </c>
       <c r="F468" s="3" t="s">
         <v>499</v>
@@ -47117,7 +47180,7 @@
         <v>2256</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>681</v>
+        <v>2346</v>
       </c>
       <c r="F475" s="3" t="s">
         <v>403</v>
@@ -47445,7 +47508,7 @@
         <v>2256</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>681</v>
+        <v>1537</v>
       </c>
       <c r="F483" s="3" t="s">
         <v>410</v>
@@ -47486,7 +47549,7 @@
         <v>2256</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>681</v>
+        <v>2347</v>
       </c>
       <c r="F484" s="3" t="s">
         <v>2242</v>
@@ -48262,7 +48325,7 @@
         <v>2256</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>681</v>
+        <v>2348</v>
       </c>
       <c r="F503" s="3" t="s">
         <v>427</v>
@@ -50473,7 +50536,7 @@
         <v>2272</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>681</v>
+        <v>2349</v>
       </c>
       <c r="F557" s="3" t="s">
         <v>2273</v>
@@ -52564,7 +52627,7 @@
         <v>2272</v>
       </c>
       <c r="E608" s="3" t="s">
-        <v>681</v>
+        <v>2350</v>
       </c>
       <c r="F608" s="3" t="s">
         <v>2282</v>
@@ -58058,7 +58121,7 @@
         <v>2317</v>
       </c>
       <c r="E742" s="3" t="s">
-        <v>681</v>
+        <v>2351</v>
       </c>
       <c r="F742" s="3" t="s">
         <v>660</v>
@@ -58960,7 +59023,7 @@
         <v>2326</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>1719</v>
+        <v>693</v>
       </c>
       <c r="F764" s="3" t="s">
         <v>675</v>
@@ -59042,7 +59105,7 @@
         <v>2326</v>
       </c>
       <c r="E766" s="3" t="s">
-        <v>681</v>
+        <v>2352</v>
       </c>
       <c r="F766" s="3" t="s">
         <v>677</v>
@@ -59083,7 +59146,7 @@
         <v>2326</v>
       </c>
       <c r="E767" s="3" t="s">
-        <v>681</v>
+        <v>1711</v>
       </c>
       <c r="F767" s="3" t="s">
         <v>2314</v>

--- a/raw_data/Spanish_WS/[Spanish_WS].xlsx
+++ b/raw_data/Spanish_WS/[Spanish_WS].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11611" uniqueCount="2360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11859" uniqueCount="2427">
   <si>
     <t>tutu</t>
   </si>
@@ -7101,13 +7101,214 @@
   </si>
   <si>
     <t>function_words</t>
+  </si>
+  <si>
+    <t>cmplx01</t>
+  </si>
+  <si>
+    <t>complexity</t>
+  </si>
+  <si>
+    <t>cmplx02</t>
+  </si>
+  <si>
+    <t>cmplx03</t>
+  </si>
+  <si>
+    <t>cmplx04</t>
+  </si>
+  <si>
+    <t>cmplx05</t>
+  </si>
+  <si>
+    <t>cmplx06</t>
+  </si>
+  <si>
+    <t>cmplx07</t>
+  </si>
+  <si>
+    <t>cmplx08</t>
+  </si>
+  <si>
+    <t>cmplx09</t>
+  </si>
+  <si>
+    <t>cmplx10</t>
+  </si>
+  <si>
+    <t>cmplx11</t>
+  </si>
+  <si>
+    <t>cmplx12</t>
+  </si>
+  <si>
+    <t>cmplx13</t>
+  </si>
+  <si>
+    <t>cmplx14</t>
+  </si>
+  <si>
+    <t>cmplx15</t>
+  </si>
+  <si>
+    <t>cmplx16</t>
+  </si>
+  <si>
+    <t>cmplx17</t>
+  </si>
+  <si>
+    <t>cmplx18</t>
+  </si>
+  <si>
+    <t>cmplx19</t>
+  </si>
+  <si>
+    <t>cmplx20</t>
+  </si>
+  <si>
+    <t>cmplx21</t>
+  </si>
+  <si>
+    <t>cmplx22</t>
+  </si>
+  <si>
+    <t>cmplx23</t>
+  </si>
+  <si>
+    <t>cmplx24</t>
+  </si>
+  <si>
+    <t>cmplx25</t>
+  </si>
+  <si>
+    <t>cmplx26</t>
+  </si>
+  <si>
+    <t>cmplx27</t>
+  </si>
+  <si>
+    <t>cmplx28</t>
+  </si>
+  <si>
+    <t>cmplx29</t>
+  </si>
+  <si>
+    <t>cmplx30</t>
+  </si>
+  <si>
+    <t>cmplx31</t>
+  </si>
+  <si>
+    <t>cmplx32</t>
+  </si>
+  <si>
+    <t>cmplx33</t>
+  </si>
+  <si>
+    <t>cmplx34</t>
+  </si>
+  <si>
+    <t>cmplx35</t>
+  </si>
+  <si>
+    <t>cmplx36</t>
+  </si>
+  <si>
+    <t>cmplx37</t>
+  </si>
+  <si>
+    <t>pracaba</t>
+  </si>
+  <si>
+    <t>word_form</t>
+  </si>
+  <si>
+    <t>pracabas</t>
+  </si>
+  <si>
+    <t>pracabms</t>
+  </si>
+  <si>
+    <t>pracabo</t>
+  </si>
+  <si>
+    <t>prcome</t>
+  </si>
+  <si>
+    <t>prcomems</t>
+  </si>
+  <si>
+    <t>prcomes</t>
+  </si>
+  <si>
+    <t>prcomo</t>
+  </si>
+  <si>
+    <t>prsube</t>
+  </si>
+  <si>
+    <t>prsubes</t>
+  </si>
+  <si>
+    <t>prsubims</t>
+  </si>
+  <si>
+    <t>prsubo</t>
+  </si>
+  <si>
+    <t>paacabe</t>
+  </si>
+  <si>
+    <t>paacabo</t>
+  </si>
+  <si>
+    <t>pacomi</t>
+  </si>
+  <si>
+    <t>pacomio</t>
+  </si>
+  <si>
+    <t>pasubi</t>
+  </si>
+  <si>
+    <t>pasubio</t>
+  </si>
+  <si>
+    <t>iacaba</t>
+  </si>
+  <si>
+    <t>iacabate</t>
+  </si>
+  <si>
+    <t>icome</t>
+  </si>
+  <si>
+    <t>icomete</t>
+  </si>
+  <si>
+    <t>isube</t>
+  </si>
+  <si>
+    <t>isubete</t>
+  </si>
+  <si>
+    <t>scombine</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>simple, complex</t>
+  </si>
+  <si>
+    <t>yes, no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7176,6 +7377,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7209,7 +7416,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2046">
+  <cellStyleXfs count="2048">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9256,8 +9463,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9285,8 +9494,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2046">
+  <cellStyles count="2048">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -10309,6 +10520,7 @@
     <cellStyle name="Followed Hyperlink" xfId="2041" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2043" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2047" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -11331,6 +11543,7 @@
     <cellStyle name="Hyperlink" xfId="2040" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2042" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2046" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -11663,14 +11876,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
-      <selection activeCell="C633" sqref="C633"/>
+    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
+      <selection activeCell="D741" sqref="D741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -29384,356 +29598,914 @@
       </c>
     </row>
     <row r="682" spans="1:8">
-      <c r="A682" s="3"/>
-      <c r="B682" s="3"/>
-      <c r="C682" s="10"/>
+      <c r="A682" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B682" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C682" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="683" spans="1:8">
-      <c r="A683" s="3"/>
-      <c r="B683" s="3"/>
-      <c r="C683" s="10"/>
+      <c r="A683" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B683" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C683" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="684" spans="1:8">
-      <c r="A684" s="3"/>
-      <c r="B684" s="3"/>
-      <c r="C684" s="10"/>
+      <c r="A684" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B684" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C684" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="685" spans="1:8">
-      <c r="A685" s="3"/>
-      <c r="B685" s="3"/>
-      <c r="C685" s="10"/>
+      <c r="A685" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B685" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C685" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="686" spans="1:8">
-      <c r="A686" s="3"/>
-      <c r="B686" s="3"/>
-      <c r="C686" s="10"/>
+      <c r="A686" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B686" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C686" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="687" spans="1:8">
-      <c r="A687" s="3"/>
-      <c r="B687" s="3"/>
-      <c r="C687" s="10"/>
+      <c r="A687" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B687" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C687" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="688" spans="1:8">
-      <c r="A688" s="3"/>
-      <c r="B688" s="3"/>
-      <c r="C688" s="10"/>
-    </row>
-    <row r="689" spans="1:3">
-      <c r="A689" s="3"/>
-      <c r="B689" s="3"/>
-      <c r="C689" s="10"/>
-    </row>
-    <row r="690" spans="1:3">
-      <c r="A690" s="3"/>
-      <c r="B690" s="3"/>
-      <c r="C690" s="10"/>
-    </row>
-    <row r="691" spans="1:3">
-      <c r="A691" s="3"/>
-      <c r="B691" s="3"/>
-      <c r="C691" s="10"/>
-    </row>
-    <row r="692" spans="1:3">
-      <c r="A692" s="3"/>
-      <c r="B692" s="3"/>
-      <c r="C692" s="10"/>
-    </row>
-    <row r="693" spans="1:3">
-      <c r="A693" s="3"/>
-      <c r="B693" s="3"/>
-      <c r="C693" s="10"/>
-    </row>
-    <row r="694" spans="1:3">
-      <c r="A694" s="3"/>
-      <c r="B694" s="3"/>
-      <c r="C694" s="10"/>
-    </row>
-    <row r="695" spans="1:3">
-      <c r="A695" s="3"/>
-      <c r="B695" s="3"/>
-      <c r="C695" s="10"/>
-    </row>
-    <row r="696" spans="1:3">
-      <c r="A696" s="3"/>
-      <c r="B696" s="3"/>
-      <c r="C696" s="8"/>
-    </row>
-    <row r="697" spans="1:3">
-      <c r="A697" s="3"/>
-      <c r="B697" s="3"/>
-      <c r="C697" s="8"/>
-    </row>
-    <row r="698" spans="1:3">
-      <c r="A698" s="3"/>
-      <c r="B698" s="3"/>
-      <c r="C698" s="8"/>
-    </row>
-    <row r="699" spans="1:3">
-      <c r="A699" s="3"/>
-      <c r="B699" s="3"/>
-      <c r="C699" s="8"/>
-    </row>
-    <row r="700" spans="1:3">
-      <c r="A700" s="3"/>
-      <c r="B700" s="3"/>
-      <c r="C700" s="8"/>
-    </row>
-    <row r="701" spans="1:3">
-      <c r="A701" s="3"/>
-      <c r="B701" s="3"/>
-      <c r="C701" s="8"/>
-    </row>
-    <row r="702" spans="1:3">
-      <c r="A702" s="3"/>
-      <c r="B702" s="3"/>
-      <c r="C702" s="8"/>
-    </row>
-    <row r="703" spans="1:3">
-      <c r="A703" s="3"/>
-      <c r="B703" s="3"/>
-      <c r="C703" s="10"/>
-    </row>
-    <row r="704" spans="1:3">
-      <c r="A704" s="3"/>
-      <c r="B704" s="3"/>
-      <c r="C704" s="10"/>
-    </row>
-    <row r="705" spans="1:3">
-      <c r="A705" s="3"/>
-      <c r="B705" s="3"/>
-      <c r="C705" s="10"/>
-    </row>
-    <row r="706" spans="1:3">
-      <c r="A706" s="3"/>
-      <c r="B706" s="3"/>
-      <c r="C706" s="10"/>
-    </row>
-    <row r="707" spans="1:3">
-      <c r="A707" s="3"/>
-      <c r="B707" s="3"/>
-      <c r="C707" s="10"/>
-    </row>
-    <row r="708" spans="1:3">
-      <c r="A708" s="3"/>
-      <c r="B708" s="3"/>
-      <c r="C708" s="10"/>
-    </row>
-    <row r="709" spans="1:3">
-      <c r="A709" s="3"/>
-      <c r="B709" s="3"/>
-      <c r="C709" s="10"/>
-    </row>
-    <row r="710" spans="1:3">
-      <c r="A710" s="3"/>
-      <c r="B710" s="3"/>
-      <c r="C710" s="10"/>
-    </row>
-    <row r="711" spans="1:3">
-      <c r="A711" s="3"/>
-      <c r="B711" s="3"/>
-      <c r="C711" s="10"/>
-    </row>
-    <row r="712" spans="1:3">
-      <c r="A712" s="3"/>
-      <c r="B712" s="3"/>
-      <c r="C712" s="10"/>
-    </row>
-    <row r="713" spans="1:3">
-      <c r="A713" s="3"/>
-      <c r="B713" s="3"/>
-      <c r="C713" s="10"/>
-    </row>
-    <row r="714" spans="1:3">
-      <c r="A714" s="3"/>
-      <c r="B714" s="3"/>
-      <c r="C714" s="10"/>
-    </row>
-    <row r="715" spans="1:3">
-      <c r="A715" s="3"/>
-      <c r="B715" s="3"/>
-      <c r="C715" s="10"/>
-    </row>
-    <row r="716" spans="1:3">
-      <c r="A716" s="3"/>
-      <c r="B716" s="3"/>
-      <c r="C716" s="10"/>
-    </row>
-    <row r="717" spans="1:3">
-      <c r="A717" s="3"/>
-      <c r="B717" s="3"/>
-      <c r="C717" s="10"/>
-    </row>
-    <row r="718" spans="1:3">
-      <c r="A718" s="3"/>
-      <c r="B718" s="3"/>
-      <c r="C718" s="10"/>
-    </row>
-    <row r="719" spans="1:3">
-      <c r="A719" s="3"/>
-      <c r="B719" s="3"/>
-      <c r="C719" s="10"/>
-    </row>
-    <row r="720" spans="1:3">
-      <c r="A720" s="3"/>
-      <c r="B720" s="3"/>
-      <c r="C720" s="10"/>
-    </row>
-    <row r="721" spans="1:3">
-      <c r="A721" s="3"/>
-      <c r="B721" s="3"/>
-      <c r="C721" s="10"/>
-    </row>
-    <row r="722" spans="1:3">
-      <c r="A722" s="3"/>
-      <c r="B722" s="3"/>
-      <c r="C722" s="10"/>
-    </row>
-    <row r="723" spans="1:3">
-      <c r="A723" s="3"/>
-      <c r="B723" s="3"/>
-      <c r="C723" s="10"/>
-    </row>
-    <row r="724" spans="1:3">
-      <c r="A724" s="3"/>
-      <c r="B724" s="3"/>
-      <c r="C724" s="10"/>
-    </row>
-    <row r="725" spans="1:3">
-      <c r="A725" s="3"/>
-      <c r="B725" s="3"/>
-      <c r="C725" s="10"/>
-    </row>
-    <row r="726" spans="1:3">
-      <c r="A726" s="3"/>
-      <c r="B726" s="3"/>
-      <c r="C726" s="10"/>
-    </row>
-    <row r="727" spans="1:3">
-      <c r="A727" s="3"/>
-      <c r="B727" s="3"/>
-      <c r="C727" s="10"/>
-    </row>
-    <row r="728" spans="1:3">
-      <c r="A728" s="3"/>
-      <c r="B728" s="3"/>
-      <c r="C728" s="10"/>
-    </row>
-    <row r="729" spans="1:3">
-      <c r="A729" s="3"/>
-      <c r="B729" s="3"/>
-      <c r="C729" s="10"/>
-    </row>
-    <row r="730" spans="1:3">
-      <c r="A730" s="3"/>
-      <c r="B730" s="3"/>
-      <c r="C730" s="10"/>
-    </row>
-    <row r="731" spans="1:3">
-      <c r="A731" s="3"/>
-      <c r="B731" s="3"/>
-      <c r="C731" s="10"/>
-    </row>
-    <row r="732" spans="1:3">
-      <c r="A732" s="3"/>
-      <c r="B732" s="3"/>
-      <c r="C732" s="10"/>
-    </row>
-    <row r="733" spans="1:3">
-      <c r="A733" s="3"/>
-      <c r="B733" s="3"/>
-      <c r="C733" s="10"/>
-    </row>
-    <row r="734" spans="1:3">
-      <c r="A734" s="3"/>
-      <c r="B734" s="3"/>
-      <c r="C734" s="10"/>
-    </row>
-    <row r="735" spans="1:3">
-      <c r="A735" s="3"/>
-      <c r="B735" s="3"/>
-      <c r="C735" s="10"/>
-    </row>
-    <row r="736" spans="1:3">
-      <c r="A736" s="3"/>
-      <c r="B736" s="3"/>
-      <c r="C736" s="10"/>
-    </row>
-    <row r="737" spans="1:3">
-      <c r="A737" s="3"/>
-      <c r="B737" s="3"/>
-      <c r="C737" s="10"/>
-    </row>
-    <row r="738" spans="1:3">
-      <c r="A738" s="3"/>
-      <c r="B738" s="3"/>
-      <c r="C738" s="10"/>
-    </row>
-    <row r="739" spans="1:3">
-      <c r="A739" s="3"/>
-      <c r="B739" s="3"/>
-      <c r="C739" s="10"/>
-    </row>
-    <row r="740" spans="1:3">
-      <c r="A740" s="3"/>
-      <c r="B740" s="3"/>
-      <c r="C740" s="10"/>
-    </row>
-    <row r="741" spans="1:3">
-      <c r="A741" s="3"/>
-      <c r="B741" s="3"/>
-      <c r="C741" s="10"/>
-    </row>
-    <row r="742" spans="1:3">
-      <c r="A742" s="3"/>
-      <c r="B742" s="3"/>
-      <c r="C742" s="10"/>
-    </row>
-    <row r="743" spans="1:3">
-      <c r="A743" s="3"/>
-      <c r="B743" s="3"/>
-      <c r="C743" s="10"/>
-    </row>
-    <row r="744" spans="1:3">
+      <c r="A688" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B688" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C688" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B689" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C689" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B690" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C690" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B691" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C691" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B692" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C692" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B693" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C693" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B694" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C694" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B695" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C695" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B696" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C696" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B697" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C697" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B698" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C698" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B699" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C699" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B700" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C700" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B701" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C701" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B702" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C702" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B703" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C703" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D703" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B704" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C704" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D704" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B705" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C705" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D705" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B706" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C706" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D706" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B707" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C707" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D707" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B708" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C708" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D708" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B709" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C709" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D709" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B710" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C710" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D710" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B711" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C711" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D711" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B712" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C712" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D712" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B713" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C713" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D713" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B714" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C714" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D714" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B715" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C715" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D715" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B716" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C716" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D716" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B717" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C717" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D717" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B718" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C718" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D718" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B719" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C719" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D719" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B720" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C720" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D720" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B721" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C721" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D721" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B722" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C722" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D722" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B723" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C723" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D723" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B724" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C724" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D724" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B725" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C725" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D725" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B726" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C726" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D726" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B727" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C727" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D727" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B728" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C728" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D728" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B729" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C729" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B730" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C730" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B731" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C731" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B732" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C732" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B733" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C733" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B734" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C734" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B735" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C735" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D735" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B736" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C736" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D736" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B737" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C737" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D737" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B738" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C738" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B739" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C739" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D739" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B740" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C740" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B741" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C741" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B742" s="13" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C742" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B743" s="13" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C743" s="14" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="10"/>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:4">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="10"/>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:4">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="10"/>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:4">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="10"/>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:4">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="10"/>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:4">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="10"/>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:4">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="10"/>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:4">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="10"/>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:4">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="10"/>

--- a/raw_data/Spanish_WS/[Spanish_WS].xlsx
+++ b/raw_data/Spanish_WS/[Spanish_WS].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11859" uniqueCount="2427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11945" uniqueCount="2501">
   <si>
     <t>tutu</t>
   </si>
@@ -7302,6 +7302,228 @@
   </si>
   <si>
     <t>yes, no</t>
+  </si>
+  <si>
+    <t>usepast</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>how_use_words</t>
+  </si>
+  <si>
+    <t>not yet, sometimes, often</t>
+  </si>
+  <si>
+    <t>does your child ever talk about past events or people who are not present?</t>
+  </si>
+  <si>
+    <t>usefuture</t>
+  </si>
+  <si>
+    <t>does your child ever talk about something that's going to happen in the future?</t>
+  </si>
+  <si>
+    <t>miss_produce</t>
+  </si>
+  <si>
+    <t>does your child talk a bout objects that are not present?</t>
+  </si>
+  <si>
+    <t>miss_comp</t>
+  </si>
+  <si>
+    <t>does your child understand if you ask for something that is not in the room?</t>
+  </si>
+  <si>
+    <t>usepossessive</t>
+  </si>
+  <si>
+    <t>does your child ever pick up or point to an object and name an absent person to whom the object belongs?</t>
+  </si>
+  <si>
+    <t>acaba (present)</t>
+  </si>
+  <si>
+    <t>acabas (present)</t>
+  </si>
+  <si>
+    <t>acabamos (present)</t>
+  </si>
+  <si>
+    <t>acabo (present)</t>
+  </si>
+  <si>
+    <t>come (present)</t>
+  </si>
+  <si>
+    <t>comemos (present)</t>
+  </si>
+  <si>
+    <t>comes (present)</t>
+  </si>
+  <si>
+    <t>como (present)</t>
+  </si>
+  <si>
+    <t>sube (present)</t>
+  </si>
+  <si>
+    <t>subes (present)</t>
+  </si>
+  <si>
+    <t>subo (present)</t>
+  </si>
+  <si>
+    <t>subimos (present)</t>
+  </si>
+  <si>
+    <t>acaba (imperative)</t>
+  </si>
+  <si>
+    <t>come (imperative)</t>
+  </si>
+  <si>
+    <t>sube (imperative)</t>
+  </si>
+  <si>
+    <t>acabé (past)</t>
+  </si>
+  <si>
+    <t>acabó (past)</t>
+  </si>
+  <si>
+    <t>comió (past)</t>
+  </si>
+  <si>
+    <t>subió (past)</t>
+  </si>
+  <si>
+    <t>comí (past)</t>
+  </si>
+  <si>
+    <t>subí (past)</t>
+  </si>
+  <si>
+    <t>acábate (imperative)</t>
+  </si>
+  <si>
+    <t>cómete (imperative)</t>
+  </si>
+  <si>
+    <t>súbete (imperative)</t>
+  </si>
+  <si>
+    <t>nene quiere / quiro paleta</t>
+  </si>
+  <si>
+    <t>tuyo esto / este es tuyo</t>
+  </si>
+  <si>
+    <t>Tito malo / soy malo</t>
+  </si>
+  <si>
+    <t>Pepe uvas / quiero uvas</t>
+  </si>
+  <si>
+    <t>agua vamos / vamos al agua</t>
+  </si>
+  <si>
+    <t>a silla / en la silla</t>
+  </si>
+  <si>
+    <t>pollo no / no quiero pollo</t>
+  </si>
+  <si>
+    <t>Paloma llorando / Paloma está llorando</t>
+  </si>
+  <si>
+    <t>mío lápiz / éste es mi lápiz</t>
+  </si>
+  <si>
+    <t>más leche / dame más leche</t>
+  </si>
+  <si>
+    <t>papo mami / el zapato es de mami</t>
+  </si>
+  <si>
+    <t>no aquí / ése no está aquí</t>
+  </si>
+  <si>
+    <t>rompió globo / se rompió el globo</t>
+  </si>
+  <si>
+    <t>leche caliente / la leche está caliente</t>
+  </si>
+  <si>
+    <t>duele panza / me duele la panza</t>
+  </si>
+  <si>
+    <t>guaguá grande / tengo un perro grande</t>
+  </si>
+  <si>
+    <t>calle allá está / allá está la calle</t>
+  </si>
+  <si>
+    <t>puse a mano / lo puse en mi mano</t>
+  </si>
+  <si>
+    <t>acabó agua / se me acabó agua</t>
+  </si>
+  <si>
+    <t>fue casa / se fue a su casa</t>
+  </si>
+  <si>
+    <t>silla subir / me quiero subir a la silla</t>
+  </si>
+  <si>
+    <t>Marta papá / quiero ir con papá</t>
+  </si>
+  <si>
+    <t>bravo Tello circo / dije bravo en el circo</t>
+  </si>
+  <si>
+    <t>papá calle / papá se fue a trabajar</t>
+  </si>
+  <si>
+    <t>ya puse / ya se lo puse</t>
+  </si>
+  <si>
+    <t>Chalo osito coche / Chalo dejó el osito en el coche</t>
+  </si>
+  <si>
+    <t>lápiz dibujar / dibujo con el lápiz</t>
+  </si>
+  <si>
+    <t>ya pinté / ya acabé de pintar</t>
+  </si>
+  <si>
+    <t>nene rompió bici Danny / el niño rompió la bici de Danny</t>
+  </si>
+  <si>
+    <t>pone no / no lo pongas</t>
+  </si>
+  <si>
+    <t>vamos comer papas carne / vamos a comer papas y carne</t>
+  </si>
+  <si>
+    <t>niño llora cayó / el niño llora porque se cayó</t>
+  </si>
+  <si>
+    <t>mamá nene compra / mamá y nene fueron a comprar</t>
+  </si>
+  <si>
+    <t>abre dame galleta / abre la caja y dame una galleta</t>
+  </si>
+  <si>
+    <t>no toca, quemas / no lo toques porque te quemas</t>
+  </si>
+  <si>
+    <t>quiero libro papá / quiero el libra que compró papá</t>
+  </si>
+  <si>
+    <t>pongo agua flores / pongo agua para que crezcan las flores</t>
   </si>
 </sst>
 </file>
@@ -7392,7 +7614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7415,8 +7637,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2048">
+  <cellStyleXfs count="2054">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9465,8 +9707,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9496,8 +9744,22 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2048">
+  <cellStyles count="2054">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -10521,6 +10783,9 @@
     <cellStyle name="Followed Hyperlink" xfId="2043" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2045" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2053" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -11544,6 +11809,9 @@
     <cellStyle name="Hyperlink" xfId="2042" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2044" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2052" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -11874,20 +12142,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H768"/>
+  <dimension ref="A1:H748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
-      <selection activeCell="D741" sqref="D741"/>
+    <sheetView tabSelected="1" topLeftCell="A687" workbookViewId="0">
+      <selection activeCell="G731" sqref="G731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29597,429 +29866,526 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
-      <c r="A682" t="s">
-        <v>2360</v>
-      </c>
-      <c r="B682" s="13" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C682" s="14" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D682" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8">
-      <c r="A683" t="s">
-        <v>2362</v>
-      </c>
-      <c r="B683" s="13" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C683" s="14" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D683" t="s">
-        <v>2425</v>
+    <row r="682" spans="1:8" ht="28">
+      <c r="A682" s="15" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B682" s="16" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C682" s="17" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E682" s="2"/>
+      <c r="F682" s="18"/>
+      <c r="G682" s="18" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" ht="28">
+      <c r="A683" s="15" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B683" s="16" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C683" s="17" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E683" s="2"/>
+      <c r="F683" s="18"/>
+      <c r="G683" s="18" t="s">
+        <v>2433</v>
       </c>
     </row>
     <row r="684" spans="1:8">
-      <c r="A684" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B684" s="13" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C684" s="14" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D684" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="685" spans="1:8">
-      <c r="A685" t="s">
-        <v>2364</v>
-      </c>
-      <c r="B685" s="13" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C685" s="14" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D685" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="686" spans="1:8">
-      <c r="A686" t="s">
-        <v>2365</v>
-      </c>
-      <c r="B686" s="13" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C686" s="14" t="s">
-        <v>2361</v>
-      </c>
-      <c r="D686" t="s">
-        <v>2425</v>
+      <c r="A684" s="15" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B684" s="16" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C684" s="17" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E684" s="2"/>
+      <c r="F684" s="18"/>
+      <c r="G684" s="18" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" ht="28">
+      <c r="A685" s="15" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B685" s="16" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C685" s="17" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E685" s="2"/>
+      <c r="F685" s="18"/>
+      <c r="G685" s="18" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" ht="28">
+      <c r="A686" s="15" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B686" s="16" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C686" s="17" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E686" s="2"/>
+      <c r="F686" s="18"/>
+      <c r="G686" s="18" t="s">
+        <v>2439</v>
       </c>
     </row>
     <row r="687" spans="1:8">
       <c r="A687" t="s">
-        <v>2366</v>
+        <v>2398</v>
       </c>
       <c r="B687" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C687" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D687" t="s">
-        <v>2425</v>
+        <v>2331</v>
+      </c>
+      <c r="G687" s="19" t="s">
+        <v>2440</v>
       </c>
     </row>
     <row r="688" spans="1:8">
       <c r="A688" t="s">
-        <v>2367</v>
+        <v>2400</v>
       </c>
       <c r="B688" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C688" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D688" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="689" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G688" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
       <c r="A689" t="s">
-        <v>2368</v>
+        <v>2401</v>
       </c>
       <c r="B689" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C689" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D689" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="690" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G689" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
       <c r="A690" t="s">
-        <v>2369</v>
+        <v>2402</v>
       </c>
       <c r="B690" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C690" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D690" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="691" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G690" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
       <c r="A691" t="s">
-        <v>2370</v>
+        <v>2403</v>
       </c>
       <c r="B691" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C691" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D691" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="692" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G691" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
       <c r="A692" t="s">
-        <v>2371</v>
+        <v>2404</v>
       </c>
       <c r="B692" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C692" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D692" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="693" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G692" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
       <c r="A693" t="s">
-        <v>2372</v>
+        <v>2405</v>
       </c>
       <c r="B693" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C693" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D693" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="694" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G693" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
       <c r="A694" t="s">
-        <v>2373</v>
+        <v>2406</v>
       </c>
       <c r="B694" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C694" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D694" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="695" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G694" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
       <c r="A695" t="s">
-        <v>2374</v>
+        <v>2407</v>
       </c>
       <c r="B695" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C695" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D695" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="696" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G695" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
       <c r="A696" t="s">
-        <v>2375</v>
+        <v>2408</v>
       </c>
       <c r="B696" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C696" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D696" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="697" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G696" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
       <c r="A697" t="s">
-        <v>2376</v>
+        <v>2409</v>
       </c>
       <c r="B697" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C697" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D697" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="698" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G697" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
       <c r="A698" t="s">
-        <v>2377</v>
+        <v>2410</v>
       </c>
       <c r="B698" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C698" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D698" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G698" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
       <c r="A699" t="s">
-        <v>2378</v>
+        <v>2411</v>
       </c>
       <c r="B699" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C699" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D699" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G699" s="20" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
       <c r="A700" t="s">
-        <v>2379</v>
+        <v>2412</v>
       </c>
       <c r="B700" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C700" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D700" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="701" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G700" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7">
       <c r="A701" t="s">
-        <v>2380</v>
+        <v>2413</v>
       </c>
       <c r="B701" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C701" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D701" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="702" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G701" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7">
       <c r="A702" t="s">
-        <v>2381</v>
+        <v>2414</v>
       </c>
       <c r="B702" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C702" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D702" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="703" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G702" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7">
       <c r="A703" t="s">
-        <v>2382</v>
+        <v>2415</v>
       </c>
       <c r="B703" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C703" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D703" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="704" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G703" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7">
       <c r="A704" t="s">
-        <v>2383</v>
+        <v>2416</v>
       </c>
       <c r="B704" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C704" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D704" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="705" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G704" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7">
       <c r="A705" t="s">
-        <v>2384</v>
+        <v>2417</v>
       </c>
       <c r="B705" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C705" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D705" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="706" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G705" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7">
       <c r="A706" t="s">
-        <v>2385</v>
+        <v>2418</v>
       </c>
       <c r="B706" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C706" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D706" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G706" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7">
       <c r="A707" t="s">
-        <v>2386</v>
+        <v>2419</v>
       </c>
       <c r="B707" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C707" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D707" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G707" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7">
       <c r="A708" t="s">
-        <v>2387</v>
+        <v>2420</v>
       </c>
       <c r="B708" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C708" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D708" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G708" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7">
       <c r="A709" t="s">
-        <v>2388</v>
+        <v>2421</v>
       </c>
       <c r="B709" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C709" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D709" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="710" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G709" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7">
       <c r="A710" t="s">
-        <v>2389</v>
+        <v>2422</v>
       </c>
       <c r="B710" s="13" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="C710" s="14" t="s">
-        <v>2361</v>
+        <v>2399</v>
       </c>
       <c r="D710" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="711" spans="1:4">
+        <v>2331</v>
+      </c>
+      <c r="G710" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7">
       <c r="A711" t="s">
-        <v>2390</v>
+        <v>2423</v>
       </c>
       <c r="B711" s="13" t="s">
-        <v>2361</v>
+        <v>2424</v>
       </c>
       <c r="C711" s="14" t="s">
-        <v>2361</v>
+        <v>2424</v>
       </c>
       <c r="D711" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7">
       <c r="A712" t="s">
-        <v>2391</v>
+        <v>2360</v>
       </c>
       <c r="B712" s="13" t="s">
         <v>2361</v>
@@ -30030,10 +30396,13 @@
       <c r="D712" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="713" spans="1:4">
+      <c r="G712" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7">
       <c r="A713" t="s">
-        <v>2392</v>
+        <v>2362</v>
       </c>
       <c r="B713" s="13" t="s">
         <v>2361</v>
@@ -30044,10 +30413,13 @@
       <c r="D713" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="714" spans="1:4">
+      <c r="G713" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7">
       <c r="A714" t="s">
-        <v>2393</v>
+        <v>2363</v>
       </c>
       <c r="B714" s="13" t="s">
         <v>2361</v>
@@ -30058,10 +30430,13 @@
       <c r="D714" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="715" spans="1:4">
+      <c r="G714" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7">
       <c r="A715" t="s">
-        <v>2394</v>
+        <v>2364</v>
       </c>
       <c r="B715" s="13" t="s">
         <v>2361</v>
@@ -30072,10 +30447,13 @@
       <c r="D715" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="716" spans="1:4">
+      <c r="G715" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7">
       <c r="A716" t="s">
-        <v>2395</v>
+        <v>2365</v>
       </c>
       <c r="B716" s="13" t="s">
         <v>2361</v>
@@ -30086,10 +30464,13 @@
       <c r="D716" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="717" spans="1:4">
+      <c r="G716" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7">
       <c r="A717" t="s">
-        <v>2396</v>
+        <v>2366</v>
       </c>
       <c r="B717" s="13" t="s">
         <v>2361</v>
@@ -30100,10 +30481,13 @@
       <c r="D717" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="718" spans="1:4">
+      <c r="G717" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7">
       <c r="A718" t="s">
-        <v>2397</v>
+        <v>2367</v>
       </c>
       <c r="B718" s="13" t="s">
         <v>2361</v>
@@ -30114,477 +30498,519 @@
       <c r="D718" t="s">
         <v>2425</v>
       </c>
-    </row>
-    <row r="719" spans="1:4">
+      <c r="G718" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7">
       <c r="A719" t="s">
-        <v>2398</v>
+        <v>2368</v>
       </c>
       <c r="B719" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C719" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D719" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G719" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7">
       <c r="A720" t="s">
-        <v>2400</v>
+        <v>2369</v>
       </c>
       <c r="B720" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C720" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D720" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="721" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G720" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7">
       <c r="A721" t="s">
-        <v>2401</v>
+        <v>2370</v>
       </c>
       <c r="B721" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C721" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D721" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="722" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G721" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7">
       <c r="A722" t="s">
-        <v>2402</v>
+        <v>2371</v>
       </c>
       <c r="B722" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C722" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D722" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="723" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G722" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7">
       <c r="A723" t="s">
-        <v>2403</v>
+        <v>2372</v>
       </c>
       <c r="B723" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C723" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D723" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="724" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G723" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7">
       <c r="A724" t="s">
-        <v>2404</v>
+        <v>2373</v>
       </c>
       <c r="B724" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C724" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D724" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="725" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G724" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7">
       <c r="A725" t="s">
-        <v>2405</v>
+        <v>2374</v>
       </c>
       <c r="B725" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C725" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D725" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="726" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G725" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7">
       <c r="A726" t="s">
-        <v>2406</v>
+        <v>2375</v>
       </c>
       <c r="B726" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C726" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D726" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="727" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G726" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7">
       <c r="A727" t="s">
-        <v>2407</v>
+        <v>2376</v>
       </c>
       <c r="B727" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C727" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D727" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="728" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G727" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7">
       <c r="A728" t="s">
-        <v>2408</v>
+        <v>2377</v>
       </c>
       <c r="B728" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C728" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D728" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="729" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G728" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7">
       <c r="A729" t="s">
-        <v>2409</v>
+        <v>2378</v>
       </c>
       <c r="B729" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C729" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D729" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="730" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G729" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
       <c r="A730" t="s">
-        <v>2410</v>
+        <v>2379</v>
       </c>
       <c r="B730" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C730" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D730" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="731" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G730" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7">
       <c r="A731" t="s">
-        <v>2411</v>
+        <v>2380</v>
       </c>
       <c r="B731" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C731" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D731" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="732" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G731" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7">
       <c r="A732" t="s">
-        <v>2412</v>
+        <v>2381</v>
       </c>
       <c r="B732" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C732" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D732" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="733" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G732" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7">
       <c r="A733" t="s">
-        <v>2413</v>
+        <v>2382</v>
       </c>
       <c r="B733" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C733" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D733" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G733" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7">
       <c r="A734" t="s">
-        <v>2414</v>
+        <v>2383</v>
       </c>
       <c r="B734" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C734" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D734" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="735" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G734" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7">
       <c r="A735" t="s">
-        <v>2415</v>
+        <v>2384</v>
       </c>
       <c r="B735" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C735" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D735" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="736" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G735" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7">
       <c r="A736" t="s">
-        <v>2416</v>
+        <v>2385</v>
       </c>
       <c r="B736" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C736" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D736" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="737" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G736" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7">
       <c r="A737" t="s">
-        <v>2417</v>
+        <v>2386</v>
       </c>
       <c r="B737" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C737" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D737" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="738" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G737" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7">
       <c r="A738" t="s">
-        <v>2418</v>
+        <v>2387</v>
       </c>
       <c r="B738" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C738" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D738" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="739" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G738" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7">
       <c r="A739" t="s">
-        <v>2419</v>
+        <v>2388</v>
       </c>
       <c r="B739" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C739" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D739" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="740" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G739" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7">
       <c r="A740" t="s">
-        <v>2420</v>
+        <v>2389</v>
       </c>
       <c r="B740" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C740" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D740" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="741" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G740" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7">
       <c r="A741" t="s">
-        <v>2421</v>
+        <v>2390</v>
       </c>
       <c r="B741" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C741" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D741" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G741" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7">
       <c r="A742" t="s">
-        <v>2422</v>
+        <v>2391</v>
       </c>
       <c r="B742" s="13" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="C742" s="14" t="s">
-        <v>2399</v>
+        <v>2361</v>
       </c>
       <c r="D742" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="743" spans="1:4">
+        <v>2425</v>
+      </c>
+      <c r="G742" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7">
       <c r="A743" t="s">
-        <v>2423</v>
+        <v>2392</v>
       </c>
       <c r="B743" s="13" t="s">
-        <v>2424</v>
+        <v>2361</v>
       </c>
       <c r="C743" s="14" t="s">
-        <v>2424</v>
+        <v>2361</v>
       </c>
       <c r="D743" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="744" spans="1:4">
-      <c r="A744" s="3"/>
-      <c r="B744" s="3"/>
-      <c r="C744" s="10"/>
-    </row>
-    <row r="745" spans="1:4">
-      <c r="A745" s="3"/>
-      <c r="B745" s="3"/>
-      <c r="C745" s="10"/>
-    </row>
-    <row r="746" spans="1:4">
-      <c r="A746" s="3"/>
-      <c r="B746" s="3"/>
-      <c r="C746" s="10"/>
-    </row>
-    <row r="747" spans="1:4">
-      <c r="A747" s="3"/>
-      <c r="B747" s="3"/>
-      <c r="C747" s="10"/>
-    </row>
-    <row r="748" spans="1:4">
-      <c r="A748" s="3"/>
-      <c r="B748" s="3"/>
-      <c r="C748" s="10"/>
-    </row>
-    <row r="749" spans="1:4">
-      <c r="A749" s="3"/>
-      <c r="B749" s="3"/>
-      <c r="C749" s="10"/>
-    </row>
-    <row r="750" spans="1:4">
-      <c r="A750" s="3"/>
-      <c r="B750" s="3"/>
-      <c r="C750" s="10"/>
-    </row>
-    <row r="751" spans="1:4">
-      <c r="A751" s="3"/>
-      <c r="B751" s="3"/>
-      <c r="C751" s="10"/>
-    </row>
-    <row r="752" spans="1:4">
-      <c r="A752" s="3"/>
-      <c r="B752" s="3"/>
-      <c r="C752" s="10"/>
-    </row>
-    <row r="753" spans="1:3">
-      <c r="A753" s="3"/>
-      <c r="B753" s="3"/>
-      <c r="C753" s="10"/>
-    </row>
-    <row r="754" spans="1:3">
-      <c r="A754" s="3"/>
-      <c r="B754" s="3"/>
-      <c r="C754" s="10"/>
-    </row>
-    <row r="755" spans="1:3">
-      <c r="A755" s="3"/>
-      <c r="B755" s="3"/>
-      <c r="C755" s="10"/>
-    </row>
-    <row r="756" spans="1:3">
-      <c r="A756" s="3"/>
-      <c r="B756" s="3"/>
-      <c r="C756" s="10"/>
-    </row>
-    <row r="757" spans="1:3">
-      <c r="A757" s="3"/>
-      <c r="B757" s="3"/>
-      <c r="C757" s="10"/>
-    </row>
-    <row r="758" spans="1:3">
-      <c r="A758" s="3"/>
-      <c r="B758" s="3"/>
-      <c r="C758" s="10"/>
-    </row>
-    <row r="759" spans="1:3">
-      <c r="A759" s="3"/>
-      <c r="B759" s="3"/>
-      <c r="C759" s="10"/>
-    </row>
-    <row r="760" spans="1:3">
-      <c r="A760" s="3"/>
-      <c r="B760" s="3"/>
-      <c r="C760" s="10"/>
-    </row>
-    <row r="761" spans="1:3">
-      <c r="A761" s="3"/>
-      <c r="B761" s="3"/>
-      <c r="C761" s="10"/>
-    </row>
-    <row r="762" spans="1:3">
-      <c r="A762" s="3"/>
-      <c r="B762" s="3"/>
-      <c r="C762" s="10"/>
-    </row>
-    <row r="763" spans="1:3">
-      <c r="A763" s="3"/>
-      <c r="B763" s="3"/>
-      <c r="C763" s="8"/>
-    </row>
-    <row r="764" spans="1:3">
-      <c r="A764" s="3"/>
-      <c r="B764" s="3"/>
-      <c r="C764" s="8"/>
-    </row>
-    <row r="765" spans="1:3">
-      <c r="B765" s="3"/>
-      <c r="C765" s="8"/>
-    </row>
-    <row r="766" spans="1:3">
-      <c r="B766" s="3"/>
-      <c r="C766" s="8"/>
-    </row>
-    <row r="767" spans="1:3">
-      <c r="B767" s="3"/>
-      <c r="C767" s="8"/>
-    </row>
-    <row r="768" spans="1:3">
-      <c r="B768" s="3"/>
-      <c r="C768" s="8"/>
+        <v>2425</v>
+      </c>
+      <c r="G743" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7">
+      <c r="A744" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B744" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C744" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D744" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G744" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7">
+      <c r="A745" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B745" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C745" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D745" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G745" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7">
+      <c r="A746" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B746" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C746" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D746" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G746" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7">
+      <c r="A747" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B747" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C747" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G747" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7">
+      <c r="A748" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B748" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C748" s="14" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G748" t="s">
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/raw_data/Spanish_WS/[Spanish_WS].xlsx
+++ b/raw_data/Spanish_WS/[Spanish_WS].xlsx
@@ -7298,12 +7298,6 @@
     <t>combine</t>
   </si>
   <si>
-    <t>simple, complex</t>
-  </si>
-  <si>
-    <t>yes, no</t>
-  </si>
-  <si>
     <t>usepast</t>
   </si>
   <si>
@@ -7313,9 +7307,6 @@
     <t>how_use_words</t>
   </si>
   <si>
-    <t>not yet, sometimes, often</t>
-  </si>
-  <si>
     <t>does your child ever talk about past events or people who are not present?</t>
   </si>
   <si>
@@ -7517,9 +7508,6 @@
     <t>abre dame galleta / abre la caja y dame una galleta</t>
   </si>
   <si>
-    <t>no toca, quemas / no lo toques porque te quemas</t>
-  </si>
-  <si>
     <t>quiero libro papá / quiero el libra que compró papá</t>
   </si>
   <si>
@@ -9774,6 +9762,18 @@
   </si>
   <si>
     <t>item_747</t>
+  </si>
+  <si>
+    <t>not yet; sometimes; often</t>
+  </si>
+  <si>
+    <t>yes; no</t>
+  </si>
+  <si>
+    <t>simple; complex</t>
+  </si>
+  <si>
+    <t>no toca; quemas / no lo toques porque te quemas</t>
   </si>
 </sst>
 </file>
@@ -14375,7 +14375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J748"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
+      <selection activeCell="E748" sqref="E748"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -14394,7 +14396,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1984</v>
@@ -14421,12 +14423,12 @@
         <v>2353</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -14455,7 +14457,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -14484,7 +14486,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -14513,7 +14515,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -14542,7 +14544,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -14571,7 +14573,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -14600,7 +14602,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -14629,7 +14631,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -14658,7 +14660,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -14687,7 +14689,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -14716,7 +14718,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -14745,7 +14747,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -14774,7 +14776,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -14803,7 +14805,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -14832,7 +14834,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -14861,7 +14863,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -14890,7 +14892,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -14919,7 +14921,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
@@ -14948,7 +14950,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
@@ -14977,7 +14979,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -15006,7 +15008,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -15035,7 +15037,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
@@ -15064,7 +15066,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
@@ -15093,7 +15095,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
@@ -15122,7 +15124,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
@@ -15151,7 +15153,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
@@ -15180,7 +15182,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
@@ -15209,7 +15211,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -15238,7 +15240,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>28</v>
@@ -15267,7 +15269,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
@@ -15296,7 +15298,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -15325,7 +15327,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>31</v>
@@ -15354,7 +15356,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
@@ -15383,7 +15385,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
@@ -15412,7 +15414,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>34</v>
@@ -15441,7 +15443,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>35</v>
@@ -15470,7 +15472,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>36</v>
@@ -15499,7 +15501,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>37</v>
@@ -15528,7 +15530,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>38</v>
@@ -15557,7 +15559,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>39</v>
@@ -15586,7 +15588,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>40</v>
@@ -15615,7 +15617,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>41</v>
@@ -15644,7 +15646,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>42</v>
@@ -15673,7 +15675,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>43</v>
@@ -15702,7 +15704,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>44</v>
@@ -15731,7 +15733,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>45</v>
@@ -15760,7 +15762,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>46</v>
@@ -15789,7 +15791,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>47</v>
@@ -15818,7 +15820,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>48</v>
@@ -15847,7 +15849,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>49</v>
@@ -15876,7 +15878,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>50</v>
@@ -15905,7 +15907,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>51</v>
@@ -15934,7 +15936,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
@@ -15963,7 +15965,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>53</v>
@@ -15992,7 +15994,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>54</v>
@@ -16021,7 +16023,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
@@ -16050,7 +16052,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>56</v>
@@ -16079,7 +16081,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>57</v>
@@ -16108,7 +16110,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>58</v>
@@ -16137,7 +16139,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>59</v>
@@ -16166,7 +16168,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>60</v>
@@ -16195,7 +16197,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
@@ -16224,7 +16226,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>62</v>
@@ -16253,7 +16255,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>63</v>
@@ -16282,7 +16284,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>64</v>
@@ -16311,7 +16313,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>65</v>
@@ -16340,7 +16342,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>66</v>
@@ -16369,7 +16371,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>67</v>
@@ -16398,7 +16400,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>68</v>
@@ -16427,7 +16429,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>69</v>
@@ -16456,7 +16458,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>70</v>
@@ -16485,7 +16487,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>71</v>
@@ -16514,7 +16516,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>72</v>
@@ -16543,7 +16545,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>73</v>
@@ -16572,7 +16574,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
@@ -16601,7 +16603,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>75</v>
@@ -16630,7 +16632,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>76</v>
@@ -16659,7 +16661,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>77</v>
@@ -16688,7 +16690,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>78</v>
@@ -16717,7 +16719,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>79</v>
@@ -16746,7 +16748,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>80</v>
@@ -16775,7 +16777,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>81</v>
@@ -16804,7 +16806,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>82</v>
@@ -16833,7 +16835,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>83</v>
@@ -16862,7 +16864,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>84</v>
@@ -16891,7 +16893,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>85</v>
@@ -16920,7 +16922,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>86</v>
@@ -16949,7 +16951,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>87</v>
@@ -16978,7 +16980,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>88</v>
@@ -17007,7 +17009,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>89</v>
@@ -17036,7 +17038,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>90</v>
@@ -17065,7 +17067,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="3" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>91</v>
@@ -17094,7 +17096,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="3" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>92</v>
@@ -17123,7 +17125,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="3" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>93</v>
@@ -17152,7 +17154,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>94</v>
@@ -17181,7 +17183,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="3" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>95</v>
@@ -17210,7 +17212,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="3" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>96</v>
@@ -17239,7 +17241,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="3" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>97</v>
@@ -17268,7 +17270,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="3" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>98</v>
@@ -17297,7 +17299,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="3" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>99</v>
@@ -17326,7 +17328,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="3" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>100</v>
@@ -17355,7 +17357,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="3" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>101</v>
@@ -17384,7 +17386,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="3" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>102</v>
@@ -17413,7 +17415,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="3" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>103</v>
@@ -17442,7 +17444,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="3" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>104</v>
@@ -17471,7 +17473,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="3" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>105</v>
@@ -17500,7 +17502,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="3" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>106</v>
@@ -17529,7 +17531,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="3" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>107</v>
@@ -17558,7 +17560,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="3" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>108</v>
@@ -17587,7 +17589,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="3" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>109</v>
@@ -17616,7 +17618,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="3" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>110</v>
@@ -17645,7 +17647,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="3" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>111</v>
@@ -17674,7 +17676,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="3" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>112</v>
@@ -17703,7 +17705,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="3" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>113</v>
@@ -17732,7 +17734,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="3" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>114</v>
@@ -17761,7 +17763,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="3" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>115</v>
@@ -17790,7 +17792,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="3" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>116</v>
@@ -17819,7 +17821,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="3" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>117</v>
@@ -17848,7 +17850,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="3" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>118</v>
@@ -17877,7 +17879,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="3" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>119</v>
@@ -17906,7 +17908,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="3" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>120</v>
@@ -17935,7 +17937,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="3" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>121</v>
@@ -17964,7 +17966,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="3" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>122</v>
@@ -17993,7 +17995,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="3" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>123</v>
@@ -18022,7 +18024,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="3" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>124</v>
@@ -18051,7 +18053,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>125</v>
@@ -18080,7 +18082,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="3" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>126</v>
@@ -18109,7 +18111,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="3" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>127</v>
@@ -18138,7 +18140,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="3" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>128</v>
@@ -18167,7 +18169,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="3" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>129</v>
@@ -18196,7 +18198,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="3" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>130</v>
@@ -18225,7 +18227,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="3" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>131</v>
@@ -18254,7 +18256,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="3" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>132</v>
@@ -18283,7 +18285,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="3" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>133</v>
@@ -18312,7 +18314,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="3" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>134</v>
@@ -18341,7 +18343,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="3" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>135</v>
@@ -18370,7 +18372,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="3" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>136</v>
@@ -18399,7 +18401,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="3" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>137</v>
@@ -18428,7 +18430,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="3" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>138</v>
@@ -18457,7 +18459,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="3" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>139</v>
@@ -18486,7 +18488,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="3" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>140</v>
@@ -18515,7 +18517,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="3" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>141</v>
@@ -18544,7 +18546,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="3" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>142</v>
@@ -18573,7 +18575,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="3" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>143</v>
@@ -18602,7 +18604,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="3" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>144</v>
@@ -18631,7 +18633,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="3" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>145</v>
@@ -18660,7 +18662,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="3" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>146</v>
@@ -18689,7 +18691,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="3" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>147</v>
@@ -18718,7 +18720,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="3" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>148</v>
@@ -18747,7 +18749,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="3" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>149</v>
@@ -18776,7 +18778,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="3" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>150</v>
@@ -18805,7 +18807,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="3" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>151</v>
@@ -18834,7 +18836,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="3" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>152</v>
@@ -18863,7 +18865,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="3" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>153</v>
@@ -18892,7 +18894,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="3" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>154</v>
@@ -18921,7 +18923,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="3" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>155</v>
@@ -18950,7 +18952,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="3" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>156</v>
@@ -18979,7 +18981,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="3" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>157</v>
@@ -19008,7 +19010,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="3" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>158</v>
@@ -19037,7 +19039,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="3" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>159</v>
@@ -19066,7 +19068,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="3" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>160</v>
@@ -19095,7 +19097,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="3" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>161</v>
@@ -19124,7 +19126,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="3" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>162</v>
@@ -19153,7 +19155,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="3" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>163</v>
@@ -19182,7 +19184,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="3" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>164</v>
@@ -19211,7 +19213,7 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="3" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>165</v>
@@ -19240,7 +19242,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="3" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>166</v>
@@ -19269,7 +19271,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="3" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>167</v>
@@ -19298,7 +19300,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="3" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>168</v>
@@ -19327,7 +19329,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="3" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>169</v>
@@ -19356,7 +19358,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="3" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>170</v>
@@ -19385,7 +19387,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="3" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>171</v>
@@ -19414,7 +19416,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="3" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>172</v>
@@ -19443,7 +19445,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="3" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>173</v>
@@ -19472,7 +19474,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="3" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>174</v>
@@ -19501,7 +19503,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="3" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>175</v>
@@ -19530,7 +19532,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="3" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>176</v>
@@ -19559,7 +19561,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="3" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>177</v>
@@ -19588,7 +19590,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="3" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>178</v>
@@ -19617,7 +19619,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="3" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>179</v>
@@ -19646,7 +19648,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="3" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>180</v>
@@ -19675,7 +19677,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="3" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>181</v>
@@ -19704,7 +19706,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="3" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>182</v>
@@ -19733,7 +19735,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="3" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>183</v>
@@ -19762,7 +19764,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="3" t="s">
-        <v>2688</v>
+        <v>2684</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>184</v>
@@ -19791,7 +19793,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="3" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>185</v>
@@ -19820,7 +19822,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="3" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>186</v>
@@ -19849,7 +19851,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="3" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>187</v>
@@ -19878,7 +19880,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="3" t="s">
-        <v>2692</v>
+        <v>2688</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>188</v>
@@ -19907,7 +19909,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="3" t="s">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>189</v>
@@ -19936,7 +19938,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="3" t="s">
-        <v>2694</v>
+        <v>2690</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>190</v>
@@ -19965,7 +19967,7 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="3" t="s">
-        <v>2695</v>
+        <v>2691</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>191</v>
@@ -19994,7 +19996,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="3" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>192</v>
@@ -20023,7 +20025,7 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="3" t="s">
-        <v>2697</v>
+        <v>2693</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>193</v>
@@ -20052,7 +20054,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="3" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>194</v>
@@ -20081,7 +20083,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="3" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>195</v>
@@ -20110,7 +20112,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="3" t="s">
-        <v>2700</v>
+        <v>2696</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>196</v>
@@ -20139,7 +20141,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="3" t="s">
-        <v>2701</v>
+        <v>2697</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>197</v>
@@ -20168,7 +20170,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="3" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>198</v>
@@ -20197,7 +20199,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="3" t="s">
-        <v>2703</v>
+        <v>2699</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>199</v>
@@ -20226,7 +20228,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="3" t="s">
-        <v>2704</v>
+        <v>2700</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>200</v>
@@ -20255,7 +20257,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="3" t="s">
-        <v>2705</v>
+        <v>2701</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>201</v>
@@ -20284,7 +20286,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="3" t="s">
-        <v>2706</v>
+        <v>2702</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>202</v>
@@ -20313,7 +20315,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="3" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>203</v>
@@ -20342,7 +20344,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="3" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>204</v>
@@ -20371,7 +20373,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="3" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>205</v>
@@ -20400,7 +20402,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="3" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>206</v>
@@ -20429,7 +20431,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="3" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>207</v>
@@ -20458,7 +20460,7 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="3" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>208</v>
@@ -20487,7 +20489,7 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="3" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>209</v>
@@ -20516,7 +20518,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="3" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>210</v>
@@ -20545,7 +20547,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="3" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>211</v>
@@ -20574,7 +20576,7 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="3" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>212</v>
@@ -20603,7 +20605,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="3" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>213</v>
@@ -20632,7 +20634,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>214</v>
@@ -20661,7 +20663,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>215</v>
@@ -20690,7 +20692,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>216</v>
@@ -20719,7 +20721,7 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="3" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>217</v>
@@ -20748,7 +20750,7 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="3" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>218</v>
@@ -20777,7 +20779,7 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="3" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>219</v>
@@ -20806,7 +20808,7 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="3" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>220</v>
@@ -20835,7 +20837,7 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="3" t="s">
-        <v>2725</v>
+        <v>2721</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>221</v>
@@ -20864,7 +20866,7 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="3" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>222</v>
@@ -20893,7 +20895,7 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="3" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>223</v>
@@ -20922,7 +20924,7 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="3" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>224</v>
@@ -20951,7 +20953,7 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="3" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>225</v>
@@ -20980,7 +20982,7 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="3" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>226</v>
@@ -21009,7 +21011,7 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="3" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>227</v>
@@ -21038,7 +21040,7 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="3" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>228</v>
@@ -21067,7 +21069,7 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="3" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>229</v>
@@ -21096,7 +21098,7 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="3" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>230</v>
@@ -21125,7 +21127,7 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="3" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>231</v>
@@ -21154,7 +21156,7 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="3" t="s">
-        <v>2736</v>
+        <v>2732</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>232</v>
@@ -21183,7 +21185,7 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="3" t="s">
-        <v>2737</v>
+        <v>2733</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>233</v>
@@ -21212,7 +21214,7 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="3" t="s">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>234</v>
@@ -21241,7 +21243,7 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="3" t="s">
-        <v>2739</v>
+        <v>2735</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>235</v>
@@ -21270,7 +21272,7 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="3" t="s">
-        <v>2740</v>
+        <v>2736</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>236</v>
@@ -21299,7 +21301,7 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="3" t="s">
-        <v>2741</v>
+        <v>2737</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>237</v>
@@ -21328,7 +21330,7 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="3" t="s">
-        <v>2742</v>
+        <v>2738</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>238</v>
@@ -21357,7 +21359,7 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="3" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>239</v>
@@ -21386,7 +21388,7 @@
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="3" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>240</v>
@@ -21415,7 +21417,7 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="3" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>241</v>
@@ -21444,7 +21446,7 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="3" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>242</v>
@@ -21473,7 +21475,7 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="3" t="s">
-        <v>2747</v>
+        <v>2743</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>243</v>
@@ -21502,7 +21504,7 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="3" t="s">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>244</v>
@@ -21531,7 +21533,7 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="3" t="s">
-        <v>2749</v>
+        <v>2745</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>245</v>
@@ -21560,7 +21562,7 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="3" t="s">
-        <v>2750</v>
+        <v>2746</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>246</v>
@@ -21589,7 +21591,7 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="3" t="s">
-        <v>2751</v>
+        <v>2747</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>247</v>
@@ -21618,7 +21620,7 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="3" t="s">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>248</v>
@@ -21647,7 +21649,7 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="3" t="s">
-        <v>2753</v>
+        <v>2749</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>249</v>
@@ -21676,7 +21678,7 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="3" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>250</v>
@@ -21705,7 +21707,7 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="3" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>251</v>
@@ -21734,7 +21736,7 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="3" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>252</v>
@@ -21763,7 +21765,7 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="3" t="s">
-        <v>2757</v>
+        <v>2753</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>253</v>
@@ -21792,7 +21794,7 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="3" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>254</v>
@@ -21821,7 +21823,7 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="3" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>255</v>
@@ -21850,7 +21852,7 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="3" t="s">
-        <v>2760</v>
+        <v>2756</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>256</v>
@@ -21879,7 +21881,7 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="3" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>257</v>
@@ -21908,7 +21910,7 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="3" t="s">
-        <v>2762</v>
+        <v>2758</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>258</v>
@@ -21937,7 +21939,7 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="3" t="s">
-        <v>2763</v>
+        <v>2759</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>259</v>
@@ -21966,7 +21968,7 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="3" t="s">
-        <v>2764</v>
+        <v>2760</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>260</v>
@@ -21995,7 +21997,7 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="3" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>261</v>
@@ -22024,7 +22026,7 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="3" t="s">
-        <v>2766</v>
+        <v>2762</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>262</v>
@@ -22053,7 +22055,7 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="3" t="s">
-        <v>2767</v>
+        <v>2763</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>263</v>
@@ -22082,7 +22084,7 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="3" t="s">
-        <v>2768</v>
+        <v>2764</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>264</v>
@@ -22111,7 +22113,7 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="3" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>265</v>
@@ -22140,7 +22142,7 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="3" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>266</v>
@@ -22169,7 +22171,7 @@
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="3" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>267</v>
@@ -22198,7 +22200,7 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="3" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>268</v>
@@ -22227,7 +22229,7 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="3" t="s">
-        <v>2773</v>
+        <v>2769</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>269</v>
@@ -22256,7 +22258,7 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="3" t="s">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>270</v>
@@ -22285,7 +22287,7 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="3" t="s">
-        <v>2775</v>
+        <v>2771</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>271</v>
@@ -22314,7 +22316,7 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="3" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>272</v>
@@ -22343,7 +22345,7 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="3" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>273</v>
@@ -22372,7 +22374,7 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="3" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>274</v>
@@ -22401,7 +22403,7 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="3" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>275</v>
@@ -22430,7 +22432,7 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="3" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>276</v>
@@ -22459,7 +22461,7 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="3" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>277</v>
@@ -22488,7 +22490,7 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="3" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>278</v>
@@ -22517,7 +22519,7 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="3" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>279</v>
@@ -22546,7 +22548,7 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="3" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>280</v>
@@ -22575,7 +22577,7 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="3" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>281</v>
@@ -22604,7 +22606,7 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="3" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>282</v>
@@ -22633,7 +22635,7 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="3" t="s">
-        <v>2787</v>
+        <v>2783</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>283</v>
@@ -22662,7 +22664,7 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="3" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>284</v>
@@ -22691,7 +22693,7 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="3" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>285</v>
@@ -22720,7 +22722,7 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="3" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>286</v>
@@ -22749,7 +22751,7 @@
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="3" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>287</v>
@@ -22778,7 +22780,7 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="3" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>288</v>
@@ -22807,7 +22809,7 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="3" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>289</v>
@@ -22836,7 +22838,7 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="3" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>290</v>
@@ -22865,7 +22867,7 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="3" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>291</v>
@@ -22894,7 +22896,7 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="3" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>292</v>
@@ -22923,7 +22925,7 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="3" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>293</v>
@@ -22952,7 +22954,7 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="3" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>294</v>
@@ -22981,7 +22983,7 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="3" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>295</v>
@@ -23010,7 +23012,7 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="3" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>296</v>
@@ -23039,7 +23041,7 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="3" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>297</v>
@@ -23068,7 +23070,7 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="3" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>298</v>
@@ -23097,7 +23099,7 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="3" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>299</v>
@@ -23126,7 +23128,7 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="3" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>300</v>
@@ -23155,7 +23157,7 @@
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="3" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>301</v>
@@ -23184,7 +23186,7 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="3" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>302</v>
@@ -23213,7 +23215,7 @@
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="3" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>303</v>
@@ -23242,7 +23244,7 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="3" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>304</v>
@@ -23271,7 +23273,7 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="3" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>305</v>
@@ -23300,7 +23302,7 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="3" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>306</v>
@@ -23329,7 +23331,7 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="3" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>307</v>
@@ -23358,7 +23360,7 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="3" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>308</v>
@@ -23387,7 +23389,7 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="3" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>309</v>
@@ -23416,7 +23418,7 @@
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="3" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>310</v>
@@ -23445,7 +23447,7 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="3" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>311</v>
@@ -23474,7 +23476,7 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="3" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>312</v>
@@ -23503,7 +23505,7 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="3" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>313</v>
@@ -23532,7 +23534,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="3" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>314</v>
@@ -23561,7 +23563,7 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="3" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>315</v>
@@ -23590,7 +23592,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="3" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>316</v>
@@ -23619,7 +23621,7 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="3" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>317</v>
@@ -23648,7 +23650,7 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="3" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>318</v>
@@ -23677,7 +23679,7 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321" s="3" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>319</v>
@@ -23706,7 +23708,7 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322" s="3" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>320</v>
@@ -23735,7 +23737,7 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="3" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>321</v>
@@ -23764,7 +23766,7 @@
     </row>
     <row r="324" spans="1:9">
       <c r="A324" s="3" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>322</v>
@@ -23793,7 +23795,7 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325" s="3" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>323</v>
@@ -23822,7 +23824,7 @@
     </row>
     <row r="326" spans="1:9">
       <c r="A326" s="3" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>324</v>
@@ -23851,7 +23853,7 @@
     </row>
     <row r="327" spans="1:9">
       <c r="A327" s="3" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>325</v>
@@ -23880,7 +23882,7 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328" s="3" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>326</v>
@@ -23909,7 +23911,7 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="3" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>327</v>
@@ -23938,7 +23940,7 @@
     </row>
     <row r="330" spans="1:9">
       <c r="A330" s="3" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>328</v>
@@ -23967,7 +23969,7 @@
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="3" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>329</v>
@@ -23996,7 +23998,7 @@
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="3" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>330</v>
@@ -24025,7 +24027,7 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="3" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>331</v>
@@ -24054,7 +24056,7 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="3" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>332</v>
@@ -24083,7 +24085,7 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="3" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>333</v>
@@ -24112,7 +24114,7 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="3" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>334</v>
@@ -24141,7 +24143,7 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="3" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>335</v>
@@ -24170,7 +24172,7 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="3" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>336</v>
@@ -24199,7 +24201,7 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="3" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>337</v>
@@ -24228,7 +24230,7 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="3" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>338</v>
@@ -24257,7 +24259,7 @@
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="3" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>339</v>
@@ -24286,7 +24288,7 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="3" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>340</v>
@@ -24315,7 +24317,7 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="3" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>341</v>
@@ -24344,7 +24346,7 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344" s="3" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>342</v>
@@ -24373,7 +24375,7 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345" s="3" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>343</v>
@@ -24402,7 +24404,7 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="3" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>344</v>
@@ -24431,7 +24433,7 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="3" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>345</v>
@@ -24460,7 +24462,7 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348" s="3" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>346</v>
@@ -24489,7 +24491,7 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="3" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>347</v>
@@ -24518,7 +24520,7 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350" s="3" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>348</v>
@@ -24547,7 +24549,7 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351" s="3" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>349</v>
@@ -24576,7 +24578,7 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352" s="3" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>350</v>
@@ -24605,7 +24607,7 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="3" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>351</v>
@@ -24634,7 +24636,7 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="3" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>352</v>
@@ -24663,7 +24665,7 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="3" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>353</v>
@@ -24692,7 +24694,7 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="3" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>354</v>
@@ -24721,7 +24723,7 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="3" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>355</v>
@@ -24750,7 +24752,7 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="3" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>356</v>
@@ -24779,7 +24781,7 @@
     </row>
     <row r="359" spans="1:9">
       <c r="A359" s="3" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>357</v>
@@ -24808,7 +24810,7 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360" s="3" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>358</v>
@@ -24837,7 +24839,7 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="3" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>359</v>
@@ -24866,7 +24868,7 @@
     </row>
     <row r="362" spans="1:9">
       <c r="A362" s="3" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>360</v>
@@ -24895,7 +24897,7 @@
     </row>
     <row r="363" spans="1:9">
       <c r="A363" s="3" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>361</v>
@@ -24924,7 +24926,7 @@
     </row>
     <row r="364" spans="1:9">
       <c r="A364" s="3" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>362</v>
@@ -24953,7 +24955,7 @@
     </row>
     <row r="365" spans="1:9">
       <c r="A365" s="3" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>363</v>
@@ -24982,7 +24984,7 @@
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="3" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>364</v>
@@ -25011,7 +25013,7 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="3" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>365</v>
@@ -25040,7 +25042,7 @@
     </row>
     <row r="368" spans="1:9">
       <c r="A368" s="3" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>366</v>
@@ -25069,7 +25071,7 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="3" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>367</v>
@@ -25098,7 +25100,7 @@
     </row>
     <row r="370" spans="1:9">
       <c r="A370" s="3" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>368</v>
@@ -25127,7 +25129,7 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="3" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>369</v>
@@ -25156,7 +25158,7 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="3" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>370</v>
@@ -25185,7 +25187,7 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="3" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>371</v>
@@ -25214,7 +25216,7 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="3" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>372</v>
@@ -25243,7 +25245,7 @@
     </row>
     <row r="375" spans="1:9">
       <c r="A375" s="3" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>373</v>
@@ -25272,7 +25274,7 @@
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="3" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>374</v>
@@ -25301,7 +25303,7 @@
     </row>
     <row r="377" spans="1:9">
       <c r="A377" s="3" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>375</v>
@@ -25330,7 +25332,7 @@
     </row>
     <row r="378" spans="1:9">
       <c r="A378" s="3" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>376</v>
@@ -25359,7 +25361,7 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="3" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>377</v>
@@ -25388,7 +25390,7 @@
     </row>
     <row r="380" spans="1:9">
       <c r="A380" s="3" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>378</v>
@@ -25417,7 +25419,7 @@
     </row>
     <row r="381" spans="1:9">
       <c r="A381" s="3" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>379</v>
@@ -25446,7 +25448,7 @@
     </row>
     <row r="382" spans="1:9">
       <c r="A382" s="3" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>380</v>
@@ -25475,7 +25477,7 @@
     </row>
     <row r="383" spans="1:9">
       <c r="A383" s="3" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>381</v>
@@ -25504,7 +25506,7 @@
     </row>
     <row r="384" spans="1:9">
       <c r="A384" s="3" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>382</v>
@@ -25533,7 +25535,7 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="3" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>383</v>
@@ -25562,7 +25564,7 @@
     </row>
     <row r="386" spans="1:9">
       <c r="A386" s="3" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>384</v>
@@ -25591,7 +25593,7 @@
     </row>
     <row r="387" spans="1:9">
       <c r="A387" s="3" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>385</v>
@@ -25620,7 +25622,7 @@
     </row>
     <row r="388" spans="1:9">
       <c r="A388" s="3" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>386</v>
@@ -25649,7 +25651,7 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="3" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>387</v>
@@ -25678,7 +25680,7 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="3" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>388</v>
@@ -25707,7 +25709,7 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="3" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>389</v>
@@ -25736,7 +25738,7 @@
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="3" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>390</v>
@@ -25765,7 +25767,7 @@
     </row>
     <row r="393" spans="1:9">
       <c r="A393" s="3" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>391</v>
@@ -25794,7 +25796,7 @@
     </row>
     <row r="394" spans="1:9">
       <c r="A394" s="3" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>392</v>
@@ -25823,7 +25825,7 @@
     </row>
     <row r="395" spans="1:9">
       <c r="A395" s="3" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>393</v>
@@ -25852,7 +25854,7 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="3" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>394</v>
@@ -25881,7 +25883,7 @@
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="3" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>395</v>
@@ -25910,7 +25912,7 @@
     </row>
     <row r="398" spans="1:9">
       <c r="A398" s="3" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>396</v>
@@ -25939,7 +25941,7 @@
     </row>
     <row r="399" spans="1:9">
       <c r="A399" s="3" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>397</v>
@@ -25968,7 +25970,7 @@
     </row>
     <row r="400" spans="1:9">
       <c r="A400" s="3" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>398</v>
@@ -25997,7 +25999,7 @@
     </row>
     <row r="401" spans="1:9">
       <c r="A401" s="3" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>399</v>
@@ -26026,7 +26028,7 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" s="3" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>400</v>
@@ -26055,7 +26057,7 @@
     </row>
     <row r="403" spans="1:9">
       <c r="A403" s="3" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>401</v>
@@ -26084,7 +26086,7 @@
     </row>
     <row r="404" spans="1:9">
       <c r="A404" s="3" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>402</v>
@@ -26113,7 +26115,7 @@
     </row>
     <row r="405" spans="1:9">
       <c r="A405" s="3" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>403</v>
@@ -26142,7 +26144,7 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="3" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>404</v>
@@ -26171,7 +26173,7 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" s="3" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>405</v>
@@ -26200,7 +26202,7 @@
     </row>
     <row r="408" spans="1:9">
       <c r="A408" s="3" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>406</v>
@@ -26229,7 +26231,7 @@
     </row>
     <row r="409" spans="1:9">
       <c r="A409" s="3" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>407</v>
@@ -26258,7 +26260,7 @@
     </row>
     <row r="410" spans="1:9">
       <c r="A410" s="3" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>408</v>
@@ -26287,7 +26289,7 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="3" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B411" s="3" t="s">
         <v>409</v>
@@ -26316,7 +26318,7 @@
     </row>
     <row r="412" spans="1:9">
       <c r="A412" s="3" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>410</v>
@@ -26345,7 +26347,7 @@
     </row>
     <row r="413" spans="1:9">
       <c r="A413" s="3" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>411</v>
@@ -26374,7 +26376,7 @@
     </row>
     <row r="414" spans="1:9">
       <c r="A414" s="3" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>412</v>
@@ -26403,7 +26405,7 @@
     </row>
     <row r="415" spans="1:9">
       <c r="A415" s="3" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>413</v>
@@ -26432,7 +26434,7 @@
     </row>
     <row r="416" spans="1:9">
       <c r="A416" s="3" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>414</v>
@@ -26461,7 +26463,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="3" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>415</v>
@@ -26490,7 +26492,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="3" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>416</v>
@@ -26519,7 +26521,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="3" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>417</v>
@@ -26548,7 +26550,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="3" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>418</v>
@@ -26577,7 +26579,7 @@
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="3" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>419</v>
@@ -26606,7 +26608,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="3" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>420</v>
@@ -26635,7 +26637,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="3" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>421</v>
@@ -26664,7 +26666,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="3" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>422</v>
@@ -26693,7 +26695,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="3" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>423</v>
@@ -26722,7 +26724,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" s="3" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>424</v>
@@ -26751,7 +26753,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="3" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>425</v>
@@ -26780,7 +26782,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="3" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>426</v>
@@ -26809,7 +26811,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="3" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>427</v>
@@ -26838,7 +26840,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="3" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>428</v>
@@ -26867,7 +26869,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" s="3" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>429</v>
@@ -26896,7 +26898,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="3" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>430</v>
@@ -26925,7 +26927,7 @@
     </row>
     <row r="433" spans="1:9">
       <c r="A433" s="3" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>431</v>
@@ -26954,7 +26956,7 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="3" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>432</v>
@@ -26983,7 +26985,7 @@
     </row>
     <row r="435" spans="1:9">
       <c r="A435" s="3" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>433</v>
@@ -27012,7 +27014,7 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436" s="3" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>434</v>
@@ -27041,7 +27043,7 @@
     </row>
     <row r="437" spans="1:9">
       <c r="A437" s="3" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>435</v>
@@ -27070,7 +27072,7 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="3" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>436</v>
@@ -27099,7 +27101,7 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="3" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>437</v>
@@ -27128,7 +27130,7 @@
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="3" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>438</v>
@@ -27157,7 +27159,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="3" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>439</v>
@@ -27186,7 +27188,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="3" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>440</v>
@@ -27215,7 +27217,7 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="3" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>441</v>
@@ -27244,7 +27246,7 @@
     </row>
     <row r="444" spans="1:9">
       <c r="A444" s="3" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>442</v>
@@ -27273,7 +27275,7 @@
     </row>
     <row r="445" spans="1:9">
       <c r="A445" s="3" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>443</v>
@@ -27302,7 +27304,7 @@
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="3" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>444</v>
@@ -27331,7 +27333,7 @@
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="3" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>445</v>
@@ -27360,7 +27362,7 @@
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="3" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>446</v>
@@ -27389,7 +27391,7 @@
     </row>
     <row r="449" spans="1:9">
       <c r="A449" s="3" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>447</v>
@@ -27418,7 +27420,7 @@
     </row>
     <row r="450" spans="1:9">
       <c r="A450" s="3" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>448</v>
@@ -27447,7 +27449,7 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451" s="3" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>449</v>
@@ -27476,7 +27478,7 @@
     </row>
     <row r="452" spans="1:9">
       <c r="A452" s="3" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>450</v>
@@ -27505,7 +27507,7 @@
     </row>
     <row r="453" spans="1:9">
       <c r="A453" s="3" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>451</v>
@@ -27534,7 +27536,7 @@
     </row>
     <row r="454" spans="1:9">
       <c r="A454" s="3" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>452</v>
@@ -27563,7 +27565,7 @@
     </row>
     <row r="455" spans="1:9">
       <c r="A455" s="3" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>453</v>
@@ -27592,7 +27594,7 @@
     </row>
     <row r="456" spans="1:9">
       <c r="A456" s="3" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>454</v>
@@ -27621,7 +27623,7 @@
     </row>
     <row r="457" spans="1:9">
       <c r="A457" s="3" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>455</v>
@@ -27650,7 +27652,7 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" s="3" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>456</v>
@@ -27679,7 +27681,7 @@
     </row>
     <row r="459" spans="1:9">
       <c r="A459" s="3" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>457</v>
@@ -27708,7 +27710,7 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460" s="3" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>458</v>
@@ -27737,7 +27739,7 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461" s="3" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>459</v>
@@ -27766,7 +27768,7 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462" s="3" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>460</v>
@@ -27795,7 +27797,7 @@
     </row>
     <row r="463" spans="1:9">
       <c r="A463" s="3" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>461</v>
@@ -27824,7 +27826,7 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="3" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>462</v>
@@ -27853,7 +27855,7 @@
     </row>
     <row r="465" spans="1:9">
       <c r="A465" s="3" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>463</v>
@@ -27882,7 +27884,7 @@
     </row>
     <row r="466" spans="1:9">
       <c r="A466" s="3" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>464</v>
@@ -27911,7 +27913,7 @@
     </row>
     <row r="467" spans="1:9">
       <c r="A467" s="3" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>465</v>
@@ -27940,7 +27942,7 @@
     </row>
     <row r="468" spans="1:9">
       <c r="A468" s="3" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>466</v>
@@ -27969,7 +27971,7 @@
     </row>
     <row r="469" spans="1:9">
       <c r="A469" s="3" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>467</v>
@@ -27998,7 +28000,7 @@
     </row>
     <row r="470" spans="1:9">
       <c r="A470" s="3" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>468</v>
@@ -28027,7 +28029,7 @@
     </row>
     <row r="471" spans="1:9">
       <c r="A471" s="3" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>469</v>
@@ -28056,7 +28058,7 @@
     </row>
     <row r="472" spans="1:9">
       <c r="A472" s="3" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>470</v>
@@ -28085,7 +28087,7 @@
     </row>
     <row r="473" spans="1:9">
       <c r="A473" s="3" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>471</v>
@@ -28114,7 +28116,7 @@
     </row>
     <row r="474" spans="1:9">
       <c r="A474" s="3" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>472</v>
@@ -28143,7 +28145,7 @@
     </row>
     <row r="475" spans="1:9">
       <c r="A475" s="3" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>473</v>
@@ -28172,7 +28174,7 @@
     </row>
     <row r="476" spans="1:9">
       <c r="A476" s="3" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>474</v>
@@ -28201,7 +28203,7 @@
     </row>
     <row r="477" spans="1:9">
       <c r="A477" s="3" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>475</v>
@@ -28230,7 +28232,7 @@
     </row>
     <row r="478" spans="1:9">
       <c r="A478" s="3" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>476</v>
@@ -28259,7 +28261,7 @@
     </row>
     <row r="479" spans="1:9">
       <c r="A479" s="3" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>477</v>
@@ -28288,7 +28290,7 @@
     </row>
     <row r="480" spans="1:9">
       <c r="A480" s="3" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>478</v>
@@ -28317,7 +28319,7 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="3" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>479</v>
@@ -28346,7 +28348,7 @@
     </row>
     <row r="482" spans="1:9">
       <c r="A482" s="3" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>480</v>
@@ -28375,7 +28377,7 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483" s="3" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>481</v>
@@ -28404,7 +28406,7 @@
     </row>
     <row r="484" spans="1:9">
       <c r="A484" s="3" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>482</v>
@@ -28433,7 +28435,7 @@
     </row>
     <row r="485" spans="1:9">
       <c r="A485" s="3" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>483</v>
@@ -28462,7 +28464,7 @@
     </row>
     <row r="486" spans="1:9">
       <c r="A486" s="3" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>484</v>
@@ -28491,7 +28493,7 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487" s="3" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>485</v>
@@ -28520,7 +28522,7 @@
     </row>
     <row r="488" spans="1:9">
       <c r="A488" s="3" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>486</v>
@@ -28549,7 +28551,7 @@
     </row>
     <row r="489" spans="1:9">
       <c r="A489" s="3" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>487</v>
@@ -28578,7 +28580,7 @@
     </row>
     <row r="490" spans="1:9">
       <c r="A490" s="3" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>488</v>
@@ -28607,7 +28609,7 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491" s="3" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>489</v>
@@ -28636,7 +28638,7 @@
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="3" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>490</v>
@@ -28665,7 +28667,7 @@
     </row>
     <row r="493" spans="1:9">
       <c r="A493" s="3" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="B493" s="3" t="s">
         <v>491</v>
@@ -28694,7 +28696,7 @@
     </row>
     <row r="494" spans="1:9">
       <c r="A494" s="3" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>492</v>
@@ -28723,7 +28725,7 @@
     </row>
     <row r="495" spans="1:9">
       <c r="A495" s="3" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>493</v>
@@ -28752,7 +28754,7 @@
     </row>
     <row r="496" spans="1:9">
       <c r="A496" s="3" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>494</v>
@@ -28781,7 +28783,7 @@
     </row>
     <row r="497" spans="1:9">
       <c r="A497" s="3" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>495</v>
@@ -28810,7 +28812,7 @@
     </row>
     <row r="498" spans="1:9">
       <c r="A498" s="3" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>496</v>
@@ -28839,7 +28841,7 @@
     </row>
     <row r="499" spans="1:9">
       <c r="A499" s="3" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>497</v>
@@ -28868,7 +28870,7 @@
     </row>
     <row r="500" spans="1:9">
       <c r="A500" s="3" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>498</v>
@@ -28897,7 +28899,7 @@
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="3" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>499</v>
@@ -28926,7 +28928,7 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="3" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>500</v>
@@ -28955,7 +28957,7 @@
     </row>
     <row r="503" spans="1:9">
       <c r="A503" s="3" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>501</v>
@@ -28984,7 +28986,7 @@
     </row>
     <row r="504" spans="1:9">
       <c r="A504" s="3" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>502</v>
@@ -29013,7 +29015,7 @@
     </row>
     <row r="505" spans="1:9">
       <c r="A505" s="3" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>503</v>
@@ -29042,7 +29044,7 @@
     </row>
     <row r="506" spans="1:9">
       <c r="A506" s="3" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>504</v>
@@ -29071,7 +29073,7 @@
     </row>
     <row r="507" spans="1:9">
       <c r="A507" s="3" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>505</v>
@@ -29100,7 +29102,7 @@
     </row>
     <row r="508" spans="1:9">
       <c r="A508" s="3" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>506</v>
@@ -29129,7 +29131,7 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="3" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>507</v>
@@ -29158,7 +29160,7 @@
     </row>
     <row r="510" spans="1:9">
       <c r="A510" s="3" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>508</v>
@@ -29187,7 +29189,7 @@
     </row>
     <row r="511" spans="1:9">
       <c r="A511" s="3" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>509</v>
@@ -29216,7 +29218,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="3" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>510</v>
@@ -29245,7 +29247,7 @@
     </row>
     <row r="513" spans="1:9">
       <c r="A513" s="3" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>511</v>
@@ -29274,7 +29276,7 @@
     </row>
     <row r="514" spans="1:9">
       <c r="A514" s="3" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>512</v>
@@ -29303,7 +29305,7 @@
     </row>
     <row r="515" spans="1:9">
       <c r="A515" s="3" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>513</v>
@@ -29332,7 +29334,7 @@
     </row>
     <row r="516" spans="1:9">
       <c r="A516" s="3" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>514</v>
@@ -29361,7 +29363,7 @@
     </row>
     <row r="517" spans="1:9">
       <c r="A517" s="3" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>515</v>
@@ -29390,7 +29392,7 @@
     </row>
     <row r="518" spans="1:9">
       <c r="A518" s="3" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>516</v>
@@ -29419,7 +29421,7 @@
     </row>
     <row r="519" spans="1:9">
       <c r="A519" s="3" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>517</v>
@@ -29448,7 +29450,7 @@
     </row>
     <row r="520" spans="1:9">
       <c r="A520" s="3" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>518</v>
@@ -29477,7 +29479,7 @@
     </row>
     <row r="521" spans="1:9">
       <c r="A521" s="3" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="B521" s="3" t="s">
         <v>519</v>
@@ -29506,7 +29508,7 @@
     </row>
     <row r="522" spans="1:9">
       <c r="A522" s="3" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>520</v>
@@ -29535,7 +29537,7 @@
     </row>
     <row r="523" spans="1:9">
       <c r="A523" s="3" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>521</v>
@@ -29564,7 +29566,7 @@
     </row>
     <row r="524" spans="1:9">
       <c r="A524" s="3" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>522</v>
@@ -29593,7 +29595,7 @@
     </row>
     <row r="525" spans="1:9">
       <c r="A525" s="3" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>523</v>
@@ -29622,7 +29624,7 @@
     </row>
     <row r="526" spans="1:9">
       <c r="A526" s="3" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>524</v>
@@ -29651,7 +29653,7 @@
     </row>
     <row r="527" spans="1:9">
       <c r="A527" s="3" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>525</v>
@@ -29680,7 +29682,7 @@
     </row>
     <row r="528" spans="1:9">
       <c r="A528" s="3" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>526</v>
@@ -29709,7 +29711,7 @@
     </row>
     <row r="529" spans="1:9">
       <c r="A529" s="3" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>527</v>
@@ -29738,7 +29740,7 @@
     </row>
     <row r="530" spans="1:9">
       <c r="A530" s="3" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>528</v>
@@ -29767,7 +29769,7 @@
     </row>
     <row r="531" spans="1:9">
       <c r="A531" s="3" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>529</v>
@@ -29796,7 +29798,7 @@
     </row>
     <row r="532" spans="1:9">
       <c r="A532" s="3" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>530</v>
@@ -29825,7 +29827,7 @@
     </row>
     <row r="533" spans="1:9">
       <c r="A533" s="3" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>531</v>
@@ -29854,7 +29856,7 @@
     </row>
     <row r="534" spans="1:9">
       <c r="A534" s="3" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>532</v>
@@ -29883,7 +29885,7 @@
     </row>
     <row r="535" spans="1:9">
       <c r="A535" s="3" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>533</v>
@@ -29912,7 +29914,7 @@
     </row>
     <row r="536" spans="1:9">
       <c r="A536" s="3" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>534</v>
@@ -29941,7 +29943,7 @@
     </row>
     <row r="537" spans="1:9">
       <c r="A537" s="3" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>535</v>
@@ -29970,7 +29972,7 @@
     </row>
     <row r="538" spans="1:9">
       <c r="A538" s="3" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>536</v>
@@ -29999,7 +30001,7 @@
     </row>
     <row r="539" spans="1:9">
       <c r="A539" s="3" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>537</v>
@@ -30028,7 +30030,7 @@
     </row>
     <row r="540" spans="1:9">
       <c r="A540" s="3" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>538</v>
@@ -30057,7 +30059,7 @@
     </row>
     <row r="541" spans="1:9">
       <c r="A541" s="3" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>539</v>
@@ -30086,7 +30088,7 @@
     </row>
     <row r="542" spans="1:9">
       <c r="A542" s="3" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>540</v>
@@ -30115,7 +30117,7 @@
     </row>
     <row r="543" spans="1:9">
       <c r="A543" s="3" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>541</v>
@@ -30144,7 +30146,7 @@
     </row>
     <row r="544" spans="1:9">
       <c r="A544" s="3" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>542</v>
@@ -30173,7 +30175,7 @@
     </row>
     <row r="545" spans="1:9">
       <c r="A545" s="3" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>543</v>
@@ -30202,7 +30204,7 @@
     </row>
     <row r="546" spans="1:9">
       <c r="A546" s="3" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>544</v>
@@ -30231,7 +30233,7 @@
     </row>
     <row r="547" spans="1:9">
       <c r="A547" s="3" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>545</v>
@@ -30260,7 +30262,7 @@
     </row>
     <row r="548" spans="1:9">
       <c r="A548" s="3" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>546</v>
@@ -30289,7 +30291,7 @@
     </row>
     <row r="549" spans="1:9">
       <c r="A549" s="3" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>547</v>
@@ -30318,7 +30320,7 @@
     </row>
     <row r="550" spans="1:9">
       <c r="A550" s="3" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>548</v>
@@ -30347,7 +30349,7 @@
     </row>
     <row r="551" spans="1:9">
       <c r="A551" s="3" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>549</v>
@@ -30376,7 +30378,7 @@
     </row>
     <row r="552" spans="1:9">
       <c r="A552" s="3" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>550</v>
@@ -30405,7 +30407,7 @@
     </row>
     <row r="553" spans="1:9">
       <c r="A553" s="3" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>551</v>
@@ -30434,7 +30436,7 @@
     </row>
     <row r="554" spans="1:9">
       <c r="A554" s="3" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="B554" s="3" t="s">
         <v>552</v>
@@ -30463,7 +30465,7 @@
     </row>
     <row r="555" spans="1:9">
       <c r="A555" s="3" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>553</v>
@@ -30492,7 +30494,7 @@
     </row>
     <row r="556" spans="1:9">
       <c r="A556" s="3" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>554</v>
@@ -30521,7 +30523,7 @@
     </row>
     <row r="557" spans="1:9">
       <c r="A557" s="3" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>555</v>
@@ -30550,7 +30552,7 @@
     </row>
     <row r="558" spans="1:9">
       <c r="A558" s="3" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>556</v>
@@ -30579,7 +30581,7 @@
     </row>
     <row r="559" spans="1:9">
       <c r="A559" s="3" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>557</v>
@@ -30608,7 +30610,7 @@
     </row>
     <row r="560" spans="1:9">
       <c r="A560" s="3" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>558</v>
@@ -30637,7 +30639,7 @@
     </row>
     <row r="561" spans="1:9">
       <c r="A561" s="3" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>559</v>
@@ -30666,7 +30668,7 @@
     </row>
     <row r="562" spans="1:9">
       <c r="A562" s="3" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>560</v>
@@ -30695,7 +30697,7 @@
     </row>
     <row r="563" spans="1:9">
       <c r="A563" s="3" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>561</v>
@@ -30724,7 +30726,7 @@
     </row>
     <row r="564" spans="1:9">
       <c r="A564" s="3" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="B564" s="3" t="s">
         <v>562</v>
@@ -30753,7 +30755,7 @@
     </row>
     <row r="565" spans="1:9">
       <c r="A565" s="3" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>563</v>
@@ -30782,7 +30784,7 @@
     </row>
     <row r="566" spans="1:9">
       <c r="A566" s="3" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>564</v>
@@ -30811,7 +30813,7 @@
     </row>
     <row r="567" spans="1:9">
       <c r="A567" s="3" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>565</v>
@@ -30840,7 +30842,7 @@
     </row>
     <row r="568" spans="1:9">
       <c r="A568" s="3" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>566</v>
@@ -30869,7 +30871,7 @@
     </row>
     <row r="569" spans="1:9">
       <c r="A569" s="3" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="B569" s="3" t="s">
         <v>567</v>
@@ -30898,7 +30900,7 @@
     </row>
     <row r="570" spans="1:9">
       <c r="A570" s="3" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>568</v>
@@ -30927,7 +30929,7 @@
     </row>
     <row r="571" spans="1:9">
       <c r="A571" s="3" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>569</v>
@@ -30956,7 +30958,7 @@
     </row>
     <row r="572" spans="1:9">
       <c r="A572" s="3" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>570</v>
@@ -30985,7 +30987,7 @@
     </row>
     <row r="573" spans="1:9">
       <c r="A573" s="3" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>571</v>
@@ -31014,7 +31016,7 @@
     </row>
     <row r="574" spans="1:9">
       <c r="A574" s="3" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>572</v>
@@ -31043,7 +31045,7 @@
     </row>
     <row r="575" spans="1:9">
       <c r="A575" s="3" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>573</v>
@@ -31072,7 +31074,7 @@
     </row>
     <row r="576" spans="1:9">
       <c r="A576" s="3" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="B576" s="3" t="s">
         <v>574</v>
@@ -31101,7 +31103,7 @@
     </row>
     <row r="577" spans="1:9">
       <c r="A577" s="3" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>575</v>
@@ -31130,7 +31132,7 @@
     </row>
     <row r="578" spans="1:9">
       <c r="A578" s="3" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>576</v>
@@ -31159,7 +31161,7 @@
     </row>
     <row r="579" spans="1:9">
       <c r="A579" s="3" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>577</v>
@@ -31188,7 +31190,7 @@
     </row>
     <row r="580" spans="1:9">
       <c r="A580" s="3" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="B580" s="3" t="s">
         <v>578</v>
@@ -31217,7 +31219,7 @@
     </row>
     <row r="581" spans="1:9">
       <c r="A581" s="3" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>579</v>
@@ -31246,7 +31248,7 @@
     </row>
     <row r="582" spans="1:9">
       <c r="A582" s="3" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>580</v>
@@ -31275,7 +31277,7 @@
     </row>
     <row r="583" spans="1:9">
       <c r="A583" s="3" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>581</v>
@@ -31304,7 +31306,7 @@
     </row>
     <row r="584" spans="1:9">
       <c r="A584" s="3" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>582</v>
@@ -31333,7 +31335,7 @@
     </row>
     <row r="585" spans="1:9">
       <c r="A585" s="3" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>583</v>
@@ -31362,7 +31364,7 @@
     </row>
     <row r="586" spans="1:9">
       <c r="A586" s="3" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>584</v>
@@ -31391,7 +31393,7 @@
     </row>
     <row r="587" spans="1:9">
       <c r="A587" s="3" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>585</v>
@@ -31420,7 +31422,7 @@
     </row>
     <row r="588" spans="1:9">
       <c r="A588" s="3" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>586</v>
@@ -31449,7 +31451,7 @@
     </row>
     <row r="589" spans="1:9">
       <c r="A589" s="3" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>587</v>
@@ -31478,7 +31480,7 @@
     </row>
     <row r="590" spans="1:9">
       <c r="A590" s="3" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>588</v>
@@ -31507,7 +31509,7 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" s="3" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>589</v>
@@ -31536,7 +31538,7 @@
     </row>
     <row r="592" spans="1:9">
       <c r="A592" s="3" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>590</v>
@@ -31565,7 +31567,7 @@
     </row>
     <row r="593" spans="1:9">
       <c r="A593" s="3" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>591</v>
@@ -31594,7 +31596,7 @@
     </row>
     <row r="594" spans="1:9">
       <c r="A594" s="3" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>592</v>
@@ -31623,7 +31625,7 @@
     </row>
     <row r="595" spans="1:9">
       <c r="A595" s="3" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>593</v>
@@ -31652,7 +31654,7 @@
     </row>
     <row r="596" spans="1:9">
       <c r="A596" s="3" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>594</v>
@@ -31681,7 +31683,7 @@
     </row>
     <row r="597" spans="1:9">
       <c r="A597" s="3" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>595</v>
@@ -31710,7 +31712,7 @@
     </row>
     <row r="598" spans="1:9">
       <c r="A598" s="3" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>596</v>
@@ -31739,7 +31741,7 @@
     </row>
     <row r="599" spans="1:9">
       <c r="A599" s="3" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>597</v>
@@ -31768,7 +31770,7 @@
     </row>
     <row r="600" spans="1:9">
       <c r="A600" s="3" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>598</v>
@@ -31797,7 +31799,7 @@
     </row>
     <row r="601" spans="1:9">
       <c r="A601" s="3" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>599</v>
@@ -31826,7 +31828,7 @@
     </row>
     <row r="602" spans="1:9">
       <c r="A602" s="3" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>600</v>
@@ -31855,7 +31857,7 @@
     </row>
     <row r="603" spans="1:9">
       <c r="A603" s="3" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>601</v>
@@ -31884,7 +31886,7 @@
     </row>
     <row r="604" spans="1:9">
       <c r="A604" s="3" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>602</v>
@@ -31913,7 +31915,7 @@
     </row>
     <row r="605" spans="1:9">
       <c r="A605" s="3" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>603</v>
@@ -31942,7 +31944,7 @@
     </row>
     <row r="606" spans="1:9">
       <c r="A606" s="3" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>604</v>
@@ -31971,7 +31973,7 @@
     </row>
     <row r="607" spans="1:9">
       <c r="A607" s="3" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>605</v>
@@ -32000,7 +32002,7 @@
     </row>
     <row r="608" spans="1:9">
       <c r="A608" s="3" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>606</v>
@@ -32029,7 +32031,7 @@
     </row>
     <row r="609" spans="1:9">
       <c r="A609" s="3" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>607</v>
@@ -32058,7 +32060,7 @@
     </row>
     <row r="610" spans="1:9">
       <c r="A610" s="3" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>608</v>
@@ -32087,7 +32089,7 @@
     </row>
     <row r="611" spans="1:9">
       <c r="A611" s="3" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>609</v>
@@ -32116,7 +32118,7 @@
     </row>
     <row r="612" spans="1:9">
       <c r="A612" s="3" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>610</v>
@@ -32145,7 +32147,7 @@
     </row>
     <row r="613" spans="1:9">
       <c r="A613" s="3" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>611</v>
@@ -32174,7 +32176,7 @@
     </row>
     <row r="614" spans="1:9">
       <c r="A614" s="3" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>612</v>
@@ -32203,7 +32205,7 @@
     </row>
     <row r="615" spans="1:9">
       <c r="A615" s="3" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>613</v>
@@ -32232,7 +32234,7 @@
     </row>
     <row r="616" spans="1:9">
       <c r="A616" s="3" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>614</v>
@@ -32261,7 +32263,7 @@
     </row>
     <row r="617" spans="1:9">
       <c r="A617" s="3" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>615</v>
@@ -32290,7 +32292,7 @@
     </row>
     <row r="618" spans="1:9">
       <c r="A618" s="3" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>616</v>
@@ -32319,7 +32321,7 @@
     </row>
     <row r="619" spans="1:9">
       <c r="A619" s="3" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>617</v>
@@ -32348,7 +32350,7 @@
     </row>
     <row r="620" spans="1:9">
       <c r="A620" s="3" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>618</v>
@@ -32377,7 +32379,7 @@
     </row>
     <row r="621" spans="1:9">
       <c r="A621" s="3" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>619</v>
@@ -32406,7 +32408,7 @@
     </row>
     <row r="622" spans="1:9">
       <c r="A622" s="3" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>620</v>
@@ -32435,7 +32437,7 @@
     </row>
     <row r="623" spans="1:9">
       <c r="A623" s="3" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>621</v>
@@ -32464,7 +32466,7 @@
     </row>
     <row r="624" spans="1:9">
       <c r="A624" s="3" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>622</v>
@@ -32493,7 +32495,7 @@
     </row>
     <row r="625" spans="1:9">
       <c r="A625" s="3" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>623</v>
@@ -32522,7 +32524,7 @@
     </row>
     <row r="626" spans="1:9">
       <c r="A626" s="3" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>624</v>
@@ -32551,7 +32553,7 @@
     </row>
     <row r="627" spans="1:9">
       <c r="A627" s="3" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>625</v>
@@ -32580,7 +32582,7 @@
     </row>
     <row r="628" spans="1:9">
       <c r="A628" s="3" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>626</v>
@@ -32609,7 +32611,7 @@
     </row>
     <row r="629" spans="1:9">
       <c r="A629" s="3" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>627</v>
@@ -32638,7 +32640,7 @@
     </row>
     <row r="630" spans="1:9">
       <c r="A630" s="3" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>628</v>
@@ -32667,7 +32669,7 @@
     </row>
     <row r="631" spans="1:9">
       <c r="A631" s="3" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>629</v>
@@ -32696,7 +32698,7 @@
     </row>
     <row r="632" spans="1:9">
       <c r="A632" s="3" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>630</v>
@@ -32725,7 +32727,7 @@
     </row>
     <row r="633" spans="1:9">
       <c r="A633" s="3" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>631</v>
@@ -32754,7 +32756,7 @@
     </row>
     <row r="634" spans="1:9">
       <c r="A634" s="3" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>632</v>
@@ -32783,7 +32785,7 @@
     </row>
     <row r="635" spans="1:9">
       <c r="A635" s="3" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>633</v>
@@ -32812,7 +32814,7 @@
     </row>
     <row r="636" spans="1:9">
       <c r="A636" s="3" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>634</v>
@@ -32841,7 +32843,7 @@
     </row>
     <row r="637" spans="1:9">
       <c r="A637" s="3" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>635</v>
@@ -32870,7 +32872,7 @@
     </row>
     <row r="638" spans="1:9">
       <c r="A638" s="3" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>636</v>
@@ -32899,7 +32901,7 @@
     </row>
     <row r="639" spans="1:9">
       <c r="A639" s="3" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>637</v>
@@ -32928,7 +32930,7 @@
     </row>
     <row r="640" spans="1:9">
       <c r="A640" s="3" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>638</v>
@@ -32957,7 +32959,7 @@
     </row>
     <row r="641" spans="1:9">
       <c r="A641" s="3" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>639</v>
@@ -32986,7 +32988,7 @@
     </row>
     <row r="642" spans="1:9">
       <c r="A642" s="3" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>640</v>
@@ -33015,7 +33017,7 @@
     </row>
     <row r="643" spans="1:9">
       <c r="A643" s="3" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>641</v>
@@ -33044,7 +33046,7 @@
     </row>
     <row r="644" spans="1:9">
       <c r="A644" s="3" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>642</v>
@@ -33073,7 +33075,7 @@
     </row>
     <row r="645" spans="1:9">
       <c r="A645" s="3" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>643</v>
@@ -33102,7 +33104,7 @@
     </row>
     <row r="646" spans="1:9">
       <c r="A646" s="3" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>644</v>
@@ -33131,7 +33133,7 @@
     </row>
     <row r="647" spans="1:9">
       <c r="A647" s="3" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>645</v>
@@ -33160,7 +33162,7 @@
     </row>
     <row r="648" spans="1:9">
       <c r="A648" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>646</v>
@@ -33189,7 +33191,7 @@
     </row>
     <row r="649" spans="1:9">
       <c r="A649" s="3" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>647</v>
@@ -33218,7 +33220,7 @@
     </row>
     <row r="650" spans="1:9">
       <c r="A650" s="3" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>648</v>
@@ -33247,7 +33249,7 @@
     </row>
     <row r="651" spans="1:9">
       <c r="A651" s="3" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>649</v>
@@ -33276,7 +33278,7 @@
     </row>
     <row r="652" spans="1:9">
       <c r="A652" s="3" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>650</v>
@@ -33305,7 +33307,7 @@
     </row>
     <row r="653" spans="1:9">
       <c r="A653" s="3" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>651</v>
@@ -33334,7 +33336,7 @@
     </row>
     <row r="654" spans="1:9">
       <c r="A654" s="3" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>652</v>
@@ -33363,7 +33365,7 @@
     </row>
     <row r="655" spans="1:9">
       <c r="A655" s="3" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>653</v>
@@ -33392,7 +33394,7 @@
     </row>
     <row r="656" spans="1:9">
       <c r="A656" s="3" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>654</v>
@@ -33421,7 +33423,7 @@
     </row>
     <row r="657" spans="1:9">
       <c r="A657" s="3" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>655</v>
@@ -33450,7 +33452,7 @@
     </row>
     <row r="658" spans="1:9">
       <c r="A658" s="3" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>656</v>
@@ -33479,7 +33481,7 @@
     </row>
     <row r="659" spans="1:9">
       <c r="A659" s="3" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>657</v>
@@ -33508,7 +33510,7 @@
     </row>
     <row r="660" spans="1:9">
       <c r="A660" s="3" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>658</v>
@@ -33537,7 +33539,7 @@
     </row>
     <row r="661" spans="1:9">
       <c r="A661" s="3" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>659</v>
@@ -33566,7 +33568,7 @@
     </row>
     <row r="662" spans="1:9">
       <c r="A662" s="3" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>660</v>
@@ -33595,7 +33597,7 @@
     </row>
     <row r="663" spans="1:9">
       <c r="A663" s="3" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>661</v>
@@ -33624,7 +33626,7 @@
     </row>
     <row r="664" spans="1:9">
       <c r="A664" s="3" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>662</v>
@@ -33653,7 +33655,7 @@
     </row>
     <row r="665" spans="1:9">
       <c r="A665" s="3" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>663</v>
@@ -33682,7 +33684,7 @@
     </row>
     <row r="666" spans="1:9">
       <c r="A666" s="3" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>664</v>
@@ -33711,7 +33713,7 @@
     </row>
     <row r="667" spans="1:9">
       <c r="A667" s="3" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>665</v>
@@ -33740,7 +33742,7 @@
     </row>
     <row r="668" spans="1:9">
       <c r="A668" s="3" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>666</v>
@@ -33769,7 +33771,7 @@
     </row>
     <row r="669" spans="1:9">
       <c r="A669" s="3" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>667</v>
@@ -33798,7 +33800,7 @@
     </row>
     <row r="670" spans="1:9">
       <c r="A670" s="3" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>668</v>
@@ -33827,7 +33829,7 @@
     </row>
     <row r="671" spans="1:9">
       <c r="A671" s="3" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>669</v>
@@ -33856,7 +33858,7 @@
     </row>
     <row r="672" spans="1:9">
       <c r="A672" s="3" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>670</v>
@@ -33885,7 +33887,7 @@
     </row>
     <row r="673" spans="1:9">
       <c r="A673" s="3" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>671</v>
@@ -33914,7 +33916,7 @@
     </row>
     <row r="674" spans="1:9">
       <c r="A674" s="3" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>672</v>
@@ -33943,7 +33945,7 @@
     </row>
     <row r="675" spans="1:9">
       <c r="A675" s="3" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>673</v>
@@ -33972,7 +33974,7 @@
     </row>
     <row r="676" spans="1:9">
       <c r="A676" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>674</v>
@@ -34001,7 +34003,7 @@
     </row>
     <row r="677" spans="1:9">
       <c r="A677" s="3" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>675</v>
@@ -34030,7 +34032,7 @@
     </row>
     <row r="678" spans="1:9">
       <c r="A678" s="3" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>676</v>
@@ -34059,7 +34061,7 @@
     </row>
     <row r="679" spans="1:9">
       <c r="A679" s="3" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>677</v>
@@ -34088,7 +34090,7 @@
     </row>
     <row r="680" spans="1:9">
       <c r="A680" s="3" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>678</v>
@@ -34117,7 +34119,7 @@
     </row>
     <row r="681" spans="1:9">
       <c r="A681" s="3" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>679</v>
@@ -34146,117 +34148,117 @@
     </row>
     <row r="682" spans="1:9" ht="28">
       <c r="A682" s="3" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="B682" s="11" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C682" s="12" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D682" s="13" t="s">
         <v>2427</v>
       </c>
-      <c r="C682" s="12" t="s">
-        <v>2428</v>
-      </c>
-      <c r="D682" s="13" t="s">
-        <v>2429</v>
-      </c>
       <c r="E682" s="2" t="s">
-        <v>2430</v>
+        <v>3247</v>
       </c>
       <c r="F682" s="2"/>
       <c r="G682" s="14"/>
       <c r="H682" s="14" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="683" spans="1:9" ht="28">
       <c r="A683" s="3" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="B683" s="11" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="C683" s="12" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D683" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2430</v>
+        <v>3247</v>
       </c>
       <c r="F683" s="2"/>
       <c r="G683" s="14"/>
       <c r="H683" s="14" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="684" spans="1:9">
       <c r="A684" s="3" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="B684" s="11" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="C684" s="12" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D684" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>2430</v>
+        <v>3247</v>
       </c>
       <c r="F684" s="2"/>
       <c r="G684" s="14"/>
       <c r="H684" s="14" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="685" spans="1:9" ht="28">
       <c r="A685" s="3" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="B685" s="11" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
       <c r="C685" s="12" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D685" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2430</v>
+        <v>3247</v>
       </c>
       <c r="F685" s="2"/>
       <c r="G685" s="14"/>
       <c r="H685" s="14" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="686" spans="1:9" ht="28">
       <c r="A686" s="3" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="B686" s="11" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
       <c r="C686" s="12" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="D686" s="13" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2430</v>
+        <v>3247</v>
       </c>
       <c r="F686" s="2"/>
       <c r="G686" s="14"/>
       <c r="H686" s="14" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="687" spans="1:9">
       <c r="A687" s="3" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>2398</v>
@@ -34271,12 +34273,12 @@
         <v>2331</v>
       </c>
       <c r="H687" s="15" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="688" spans="1:9">
       <c r="A688" s="3" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>2400</v>
@@ -34291,12 +34293,12 @@
         <v>2331</v>
       </c>
       <c r="H688" s="3" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="689" spans="1:8">
       <c r="A689" s="3" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>2401</v>
@@ -34311,12 +34313,12 @@
         <v>2331</v>
       </c>
       <c r="H689" s="3" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="690" spans="1:8">
       <c r="A690" s="3" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>2402</v>
@@ -34331,12 +34333,12 @@
         <v>2331</v>
       </c>
       <c r="H690" s="3" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="691" spans="1:8">
       <c r="A691" s="3" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>2403</v>
@@ -34351,12 +34353,12 @@
         <v>2331</v>
       </c>
       <c r="H691" s="3" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="692" spans="1:8">
       <c r="A692" s="3" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>2404</v>
@@ -34371,12 +34373,12 @@
         <v>2331</v>
       </c>
       <c r="H692" s="3" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="693" spans="1:8">
       <c r="A693" s="3" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>2405</v>
@@ -34391,12 +34393,12 @@
         <v>2331</v>
       </c>
       <c r="H693" s="3" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="694" spans="1:8">
       <c r="A694" s="3" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>2406</v>
@@ -34411,12 +34413,12 @@
         <v>2331</v>
       </c>
       <c r="H694" s="3" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="695" spans="1:8">
       <c r="A695" s="3" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>2407</v>
@@ -34431,12 +34433,12 @@
         <v>2331</v>
       </c>
       <c r="H695" s="3" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="696" spans="1:8">
       <c r="A696" s="3" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>2408</v>
@@ -34451,12 +34453,12 @@
         <v>2331</v>
       </c>
       <c r="H696" s="3" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="697" spans="1:8">
       <c r="A697" s="3" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>2409</v>
@@ -34471,12 +34473,12 @@
         <v>2331</v>
       </c>
       <c r="H697" s="3" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="698" spans="1:8">
       <c r="A698" s="3" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>2410</v>
@@ -34491,12 +34493,12 @@
         <v>2331</v>
       </c>
       <c r="H698" s="3" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="699" spans="1:8">
       <c r="A699" s="3" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>2411</v>
@@ -34511,12 +34513,12 @@
         <v>2331</v>
       </c>
       <c r="H699" s="10" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="700" spans="1:8">
       <c r="A700" s="3" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>2412</v>
@@ -34531,12 +34533,12 @@
         <v>2331</v>
       </c>
       <c r="H700" s="3" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="701" spans="1:8">
       <c r="A701" s="3" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>2413</v>
@@ -34551,12 +34553,12 @@
         <v>2331</v>
       </c>
       <c r="H701" s="3" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="702" spans="1:8">
       <c r="A702" s="3" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>2414</v>
@@ -34571,12 +34573,12 @@
         <v>2331</v>
       </c>
       <c r="H702" s="3" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="703" spans="1:8">
       <c r="A703" s="3" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>2415</v>
@@ -34591,12 +34593,12 @@
         <v>2331</v>
       </c>
       <c r="H703" s="3" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="704" spans="1:8">
       <c r="A704" s="3" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>2416</v>
@@ -34611,12 +34613,12 @@
         <v>2331</v>
       </c>
       <c r="H704" s="3" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="705" spans="1:10">
       <c r="A705" s="3" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>2417</v>
@@ -34631,12 +34633,12 @@
         <v>2331</v>
       </c>
       <c r="H705" s="3" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="706" spans="1:10">
       <c r="A706" s="3" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>2418</v>
@@ -34651,12 +34653,12 @@
         <v>2331</v>
       </c>
       <c r="H706" s="3" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="707" spans="1:10">
       <c r="A707" s="3" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>2419</v>
@@ -34671,12 +34673,12 @@
         <v>2331</v>
       </c>
       <c r="H707" s="3" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="708" spans="1:10">
       <c r="A708" s="3" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>2420</v>
@@ -34691,12 +34693,12 @@
         <v>2331</v>
       </c>
       <c r="H708" s="3" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="709" spans="1:10">
       <c r="A709" s="3" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>2421</v>
@@ -34711,12 +34713,12 @@
         <v>2331</v>
       </c>
       <c r="H709" s="3" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="710" spans="1:10">
       <c r="A710" s="3" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>2422</v>
@@ -34731,12 +34733,12 @@
         <v>2331</v>
       </c>
       <c r="H710" s="3" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="711" spans="1:10">
       <c r="A711" s="3" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>2423</v>
@@ -34748,12 +34750,12 @@
         <v>2424</v>
       </c>
       <c r="E711" s="3" t="s">
-        <v>2426</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="712" spans="1:10">
       <c r="A712" s="3" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>2360</v>
@@ -34765,18 +34767,18 @@
         <v>2361</v>
       </c>
       <c r="E712" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H712" s="3" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="J712" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="713" spans="1:10">
       <c r="A713" s="3" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>2362</v>
@@ -34788,18 +34790,18 @@
         <v>2361</v>
       </c>
       <c r="E713" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H713" s="3" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="J713" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="714" spans="1:10">
       <c r="A714" s="3" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>2363</v>
@@ -34811,18 +34813,18 @@
         <v>2361</v>
       </c>
       <c r="E714" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H714" s="3" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="J714" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="715" spans="1:10">
       <c r="A715" s="3" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>2364</v>
@@ -34834,18 +34836,18 @@
         <v>2361</v>
       </c>
       <c r="E715" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H715" s="3" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="J715" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="716" spans="1:10">
       <c r="A716" s="3" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>2365</v>
@@ -34857,18 +34859,18 @@
         <v>2361</v>
       </c>
       <c r="E716" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H716" s="3" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="J716" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="717" spans="1:10">
       <c r="A717" s="3" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>2366</v>
@@ -34880,18 +34882,18 @@
         <v>2361</v>
       </c>
       <c r="E717" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H717" s="3" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="J717" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="718" spans="1:10">
       <c r="A718" s="3" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>2367</v>
@@ -34903,18 +34905,18 @@
         <v>2361</v>
       </c>
       <c r="E718" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H718" s="3" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="J718" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="719" spans="1:10">
       <c r="A719" s="3" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>2368</v>
@@ -34926,18 +34928,18 @@
         <v>2361</v>
       </c>
       <c r="E719" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H719" s="3" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="J719" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="720" spans="1:10">
       <c r="A720" s="3" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>2369</v>
@@ -34949,18 +34951,18 @@
         <v>2361</v>
       </c>
       <c r="E720" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H720" s="3" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="J720" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="721" spans="1:10">
       <c r="A721" s="3" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>2370</v>
@@ -34972,18 +34974,18 @@
         <v>2361</v>
       </c>
       <c r="E721" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H721" s="3" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="J721" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="722" spans="1:10">
       <c r="A722" s="3" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>2371</v>
@@ -34995,18 +34997,18 @@
         <v>2361</v>
       </c>
       <c r="E722" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H722" s="3" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="J722" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="723" spans="1:10">
       <c r="A723" s="3" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>2372</v>
@@ -35018,18 +35020,18 @@
         <v>2361</v>
       </c>
       <c r="E723" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H723" s="3" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="J723" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="724" spans="1:10">
       <c r="A724" s="3" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>2373</v>
@@ -35041,18 +35043,18 @@
         <v>2361</v>
       </c>
       <c r="E724" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H724" s="3" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="J724" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="725" spans="1:10">
       <c r="A725" s="3" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>2374</v>
@@ -35064,18 +35066,18 @@
         <v>2361</v>
       </c>
       <c r="E725" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H725" s="3" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="J725" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="726" spans="1:10">
       <c r="A726" s="3" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>2375</v>
@@ -35087,18 +35089,18 @@
         <v>2361</v>
       </c>
       <c r="E726" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H726" s="3" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="J726" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="727" spans="1:10">
       <c r="A727" s="3" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>2376</v>
@@ -35110,18 +35112,18 @@
         <v>2361</v>
       </c>
       <c r="E727" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H727" s="3" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="J727" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="728" spans="1:10">
       <c r="A728" s="3" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>2377</v>
@@ -35133,18 +35135,18 @@
         <v>2361</v>
       </c>
       <c r="E728" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H728" s="3" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="J728" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="729" spans="1:10">
       <c r="A729" s="3" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>2378</v>
@@ -35156,18 +35158,18 @@
         <v>2361</v>
       </c>
       <c r="E729" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H729" s="3" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="J729" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="730" spans="1:10">
       <c r="A730" s="3" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>2379</v>
@@ -35179,18 +35181,18 @@
         <v>2361</v>
       </c>
       <c r="E730" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H730" s="3" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="J730" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="731" spans="1:10">
       <c r="A731" s="3" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>2380</v>
@@ -35202,18 +35204,18 @@
         <v>2361</v>
       </c>
       <c r="E731" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H731" s="3" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="J731" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="732" spans="1:10">
       <c r="A732" s="3" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>2381</v>
@@ -35225,18 +35227,18 @@
         <v>2361</v>
       </c>
       <c r="E732" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H732" s="3" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="J732" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="733" spans="1:10">
       <c r="A733" s="3" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>2382</v>
@@ -35248,18 +35250,18 @@
         <v>2361</v>
       </c>
       <c r="E733" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H733" s="3" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="J733" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="734" spans="1:10">
       <c r="A734" s="3" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>2383</v>
@@ -35271,18 +35273,18 @@
         <v>2361</v>
       </c>
       <c r="E734" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H734" s="3" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="J734" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="735" spans="1:10">
       <c r="A735" s="3" t="s">
-        <v>3237</v>
+        <v>3233</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>2384</v>
@@ -35294,18 +35296,18 @@
         <v>2361</v>
       </c>
       <c r="E735" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H735" s="3" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="J735" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="736" spans="1:10">
       <c r="A736" s="3" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>2385</v>
@@ -35317,18 +35319,18 @@
         <v>2361</v>
       </c>
       <c r="E736" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H736" s="3" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="J736" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="737" spans="1:10">
       <c r="A737" s="3" t="s">
-        <v>3239</v>
+        <v>3235</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>2386</v>
@@ -35340,18 +35342,18 @@
         <v>2361</v>
       </c>
       <c r="E737" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H737" s="3" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="J737" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="738" spans="1:10">
       <c r="A738" s="3" t="s">
-        <v>3240</v>
+        <v>3236</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>2387</v>
@@ -35363,18 +35365,18 @@
         <v>2361</v>
       </c>
       <c r="E738" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H738" s="3" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="J738" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="739" spans="1:10">
       <c r="A739" s="3" t="s">
-        <v>3241</v>
+        <v>3237</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>2388</v>
@@ -35386,18 +35388,18 @@
         <v>2361</v>
       </c>
       <c r="E739" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H739" s="3" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="J739" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="740" spans="1:10">
       <c r="A740" s="3" t="s">
-        <v>3242</v>
+        <v>3238</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>2389</v>
@@ -35409,18 +35411,18 @@
         <v>2361</v>
       </c>
       <c r="E740" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H740" s="3" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="J740" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="741" spans="1:10">
       <c r="A741" s="3" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>2390</v>
@@ -35432,18 +35434,18 @@
         <v>2361</v>
       </c>
       <c r="E741" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H741" s="3" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="J741" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="742" spans="1:10">
       <c r="A742" s="3" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>2391</v>
@@ -35455,18 +35457,18 @@
         <v>2361</v>
       </c>
       <c r="E742" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H742" s="3" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="J742" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="743" spans="1:10">
       <c r="A743" s="3" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>2392</v>
@@ -35478,18 +35480,18 @@
         <v>2361</v>
       </c>
       <c r="E743" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H743" s="3" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="J743" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="744" spans="1:10">
       <c r="A744" s="3" t="s">
-        <v>3246</v>
+        <v>3242</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>2393</v>
@@ -35501,18 +35503,18 @@
         <v>2361</v>
       </c>
       <c r="E744" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H744" s="3" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="J744" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="745" spans="1:10">
       <c r="A745" s="3" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>2394</v>
@@ -35524,18 +35526,18 @@
         <v>2361</v>
       </c>
       <c r="E745" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H745" s="3" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="J745" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="746" spans="1:10">
       <c r="A746" s="3" t="s">
-        <v>3248</v>
+        <v>3244</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>2395</v>
@@ -35547,18 +35549,18 @@
         <v>2361</v>
       </c>
       <c r="E746" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H746" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="J746" s="3" t="s">
         <v>2498</v>
-      </c>
-      <c r="J746" s="3" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="747" spans="1:10">
       <c r="A747" s="3" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>2396</v>
@@ -35570,18 +35572,18 @@
         <v>2361</v>
       </c>
       <c r="E747" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H747" s="3" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
       <c r="J747" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="748" spans="1:10">
       <c r="A748" s="3" t="s">
-        <v>3250</v>
+        <v>3246</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>2397</v>
@@ -35593,13 +35595,13 @@
         <v>2361</v>
       </c>
       <c r="E748" s="3" t="s">
-        <v>2425</v>
+        <v>3249</v>
       </c>
       <c r="H748" s="3" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="J748" s="3" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/Spanish_WS/[Spanish_WS].xlsx
+++ b/raw_data/Spanish_WS/[Spanish_WS].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13478" uniqueCount="3609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13473" uniqueCount="3606">
   <si>
     <t>tutu</t>
   </si>
@@ -10658,21 +10658,6 @@
     <t>well then</t>
   </si>
   <si>
-    <t>does your child ever talk acerca past events or people Who are not present?</t>
-  </si>
-  <si>
-    <t>does your child ever talk acerca something that's going to happen in the future?</t>
-  </si>
-  <si>
-    <t>does your child talk to bout That objects are not present?</t>
-  </si>
-  <si>
-    <t>Understand your child does if you ask for something That Is not in the room?</t>
-  </si>
-  <si>
-    <t>does your child ever pick up or point to an object and name an absent person to Whom the object belongs?</t>
-  </si>
-  <si>
     <t>just (present)</t>
   </si>
   <si>
@@ -10848,6 +10833,12 @@
   </si>
   <si>
     <t>put water flowers / put water to grow flowers</t>
+  </si>
+  <si>
+    <t>prepositions</t>
+  </si>
+  <si>
+    <t>quantifiers</t>
   </si>
 </sst>
 </file>
@@ -10967,9 +10958,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2058">
+  <cellStyleXfs count="2064">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13071,7 +13068,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2058">
+  <cellStyles count="2064">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -14100,6 +14097,9 @@
     <cellStyle name="Followed Hyperlink" xfId="2053" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2055" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2063" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -15128,6 +15128,9 @@
     <cellStyle name="Hyperlink" xfId="2052" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2054" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2062" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -15460,8 +15463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E722" workbookViewId="0">
-      <selection activeCell="I748" sqref="I748"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="D660" sqref="D660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15506,7 +15509,7 @@
         <v>1982</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>3571</v>
+        <v>3566</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>2353</v>
@@ -35718,7 +35721,7 @@
         <v>2329</v>
       </c>
       <c r="D633" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>2331</v>
@@ -35750,7 +35753,7 @@
         <v>2329</v>
       </c>
       <c r="D634" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>2331</v>
@@ -35782,7 +35785,7 @@
         <v>2329</v>
       </c>
       <c r="D635" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>2331</v>
@@ -35814,7 +35817,7 @@
         <v>2329</v>
       </c>
       <c r="D636" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>2331</v>
@@ -35846,7 +35849,7 @@
         <v>2329</v>
       </c>
       <c r="D637" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>2331</v>
@@ -35878,7 +35881,7 @@
         <v>2329</v>
       </c>
       <c r="D638" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E638" s="3" t="s">
         <v>2331</v>
@@ -35910,7 +35913,7 @@
         <v>2329</v>
       </c>
       <c r="D639" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E639" s="3" t="s">
         <v>2331</v>
@@ -35942,7 +35945,7 @@
         <v>2329</v>
       </c>
       <c r="D640" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E640" s="3" t="s">
         <v>2331</v>
@@ -35974,7 +35977,7 @@
         <v>2329</v>
       </c>
       <c r="D641" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>2331</v>
@@ -36006,7 +36009,7 @@
         <v>2329</v>
       </c>
       <c r="D642" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E642" s="3" t="s">
         <v>2331</v>
@@ -36038,7 +36041,7 @@
         <v>2329</v>
       </c>
       <c r="D643" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E643" s="3" t="s">
         <v>2331</v>
@@ -36070,7 +36073,7 @@
         <v>2329</v>
       </c>
       <c r="D644" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>2331</v>
@@ -36102,7 +36105,7 @@
         <v>2329</v>
       </c>
       <c r="D645" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E645" s="3" t="s">
         <v>2331</v>
@@ -36134,7 +36137,7 @@
         <v>2329</v>
       </c>
       <c r="D646" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>2331</v>
@@ -36166,7 +36169,7 @@
         <v>2329</v>
       </c>
       <c r="D647" s="10" t="s">
-        <v>2315</v>
+        <v>3604</v>
       </c>
       <c r="E647" s="3" t="s">
         <v>2331</v>
@@ -36198,7 +36201,7 @@
         <v>2329</v>
       </c>
       <c r="D648" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E648" s="3" t="s">
         <v>2331</v>
@@ -36230,7 +36233,7 @@
         <v>2329</v>
       </c>
       <c r="D649" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E649" s="3" t="s">
         <v>2331</v>
@@ -36262,7 +36265,7 @@
         <v>2329</v>
       </c>
       <c r="D650" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E650" s="3" t="s">
         <v>2331</v>
@@ -36294,7 +36297,7 @@
         <v>2329</v>
       </c>
       <c r="D651" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E651" s="3" t="s">
         <v>2331</v>
@@ -36326,7 +36329,7 @@
         <v>2329</v>
       </c>
       <c r="D652" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E652" s="3" t="s">
         <v>2331</v>
@@ -36358,7 +36361,7 @@
         <v>2329</v>
       </c>
       <c r="D653" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E653" s="3" t="s">
         <v>2331</v>
@@ -36390,7 +36393,7 @@
         <v>2329</v>
       </c>
       <c r="D654" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E654" s="3" t="s">
         <v>2331</v>
@@ -36422,7 +36425,7 @@
         <v>2329</v>
       </c>
       <c r="D655" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E655" s="3" t="s">
         <v>2331</v>
@@ -36454,7 +36457,7 @@
         <v>2329</v>
       </c>
       <c r="D656" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E656" s="3" t="s">
         <v>2331</v>
@@ -36486,7 +36489,7 @@
         <v>2329</v>
       </c>
       <c r="D657" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E657" s="3" t="s">
         <v>2331</v>
@@ -36518,7 +36521,7 @@
         <v>2329</v>
       </c>
       <c r="D658" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E658" s="3" t="s">
         <v>2331</v>
@@ -36550,7 +36553,7 @@
         <v>2329</v>
       </c>
       <c r="D659" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E659" s="3" t="s">
         <v>2331</v>
@@ -36582,7 +36585,7 @@
         <v>2329</v>
       </c>
       <c r="D660" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E660" s="3" t="s">
         <v>2331</v>
@@ -36614,7 +36617,7 @@
         <v>2329</v>
       </c>
       <c r="D661" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E661" s="3" t="s">
         <v>2331</v>
@@ -36646,7 +36649,7 @@
         <v>2329</v>
       </c>
       <c r="D662" s="10" t="s">
-        <v>2317</v>
+        <v>3605</v>
       </c>
       <c r="E662" s="3" t="s">
         <v>2331</v>
@@ -37296,9 +37299,7 @@
       <c r="H682" s="14" t="s">
         <v>2428</v>
       </c>
-      <c r="I682" s="19" t="s">
-        <v>3545</v>
-      </c>
+      <c r="I682" s="19"/>
     </row>
     <row r="683" spans="1:10" ht="28">
       <c r="A683" s="3" t="s">
@@ -37321,9 +37322,7 @@
       <c r="H683" s="14" t="s">
         <v>2430</v>
       </c>
-      <c r="I683" s="19" t="s">
-        <v>3546</v>
-      </c>
+      <c r="I683" s="19"/>
     </row>
     <row r="684" spans="1:10" ht="28">
       <c r="A684" s="3" t="s">
@@ -37346,9 +37345,7 @@
       <c r="H684" s="14" t="s">
         <v>2432</v>
       </c>
-      <c r="I684" s="19" t="s">
-        <v>3547</v>
-      </c>
+      <c r="I684" s="19"/>
     </row>
     <row r="685" spans="1:10" ht="28">
       <c r="A685" s="3" t="s">
@@ -37371,9 +37368,7 @@
       <c r="H685" s="14" t="s">
         <v>2434</v>
       </c>
-      <c r="I685" s="19" t="s">
-        <v>3548</v>
-      </c>
+      <c r="I685" s="19"/>
     </row>
     <row r="686" spans="1:10" ht="28">
       <c r="A686" s="3" t="s">
@@ -37396,9 +37391,7 @@
       <c r="H686" s="14" t="s">
         <v>2436</v>
       </c>
-      <c r="I686" s="19" t="s">
-        <v>3549</v>
-      </c>
+      <c r="I686" s="19"/>
     </row>
     <row r="687" spans="1:10">
       <c r="A687" s="3" t="s">
@@ -37420,7 +37413,7 @@
         <v>2437</v>
       </c>
       <c r="I687" s="2" t="s">
-        <v>3550</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="688" spans="1:10">
@@ -37443,7 +37436,7 @@
         <v>2438</v>
       </c>
       <c r="I688" s="3" t="s">
-        <v>3551</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="689" spans="1:9">
@@ -37466,7 +37459,7 @@
         <v>2439</v>
       </c>
       <c r="I689" s="3" t="s">
-        <v>3550</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="690" spans="1:9">
@@ -37489,7 +37482,7 @@
         <v>2440</v>
       </c>
       <c r="I690" s="3" t="s">
-        <v>3552</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="691" spans="1:9">
@@ -37535,7 +37528,7 @@
         <v>2442</v>
       </c>
       <c r="I692" s="3" t="s">
-        <v>3553</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="693" spans="1:9">
@@ -37558,7 +37551,7 @@
         <v>2443</v>
       </c>
       <c r="I693" s="3" t="s">
-        <v>3554</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="694" spans="1:9">
@@ -37581,7 +37574,7 @@
         <v>2444</v>
       </c>
       <c r="I694" s="3" t="s">
-        <v>3555</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="695" spans="1:9">
@@ -37604,7 +37597,7 @@
         <v>2445</v>
       </c>
       <c r="I695" s="3" t="s">
-        <v>3556</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="696" spans="1:9">
@@ -37627,7 +37620,7 @@
         <v>2446</v>
       </c>
       <c r="I696" s="3" t="s">
-        <v>3557</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="697" spans="1:9">
@@ -37650,7 +37643,7 @@
         <v>2448</v>
       </c>
       <c r="I697" s="3" t="s">
-        <v>3558</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="698" spans="1:9">
@@ -37673,7 +37666,7 @@
         <v>2447</v>
       </c>
       <c r="I698" s="3" t="s">
-        <v>3559</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="699" spans="1:9">
@@ -37696,7 +37689,7 @@
         <v>2452</v>
       </c>
       <c r="I699" s="10" t="s">
-        <v>3560</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="700" spans="1:9">
@@ -37719,7 +37712,7 @@
         <v>2453</v>
       </c>
       <c r="I700" s="3" t="s">
-        <v>3561</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="701" spans="1:9">
@@ -37742,7 +37735,7 @@
         <v>2456</v>
       </c>
       <c r="I701" s="3" t="s">
-        <v>3562</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="702" spans="1:9">
@@ -37765,7 +37758,7 @@
         <v>2454</v>
       </c>
       <c r="I702" s="3" t="s">
-        <v>3563</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="703" spans="1:9">
@@ -37788,7 +37781,7 @@
         <v>2457</v>
       </c>
       <c r="I703" s="3" t="s">
-        <v>3564</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="704" spans="1:9">
@@ -37811,7 +37804,7 @@
         <v>2455</v>
       </c>
       <c r="I704" s="3" t="s">
-        <v>3565</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="705" spans="1:11">
@@ -37834,7 +37827,7 @@
         <v>2449</v>
       </c>
       <c r="I705" s="3" t="s">
-        <v>3566</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="706" spans="1:11">
@@ -37857,7 +37850,7 @@
         <v>2458</v>
       </c>
       <c r="I706" s="3" t="s">
-        <v>3567</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="707" spans="1:11">
@@ -37903,7 +37896,7 @@
         <v>2459</v>
       </c>
       <c r="I708" s="3" t="s">
-        <v>3568</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="709" spans="1:11">
@@ -37926,7 +37919,7 @@
         <v>2451</v>
       </c>
       <c r="I709" s="3" t="s">
-        <v>3569</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="710" spans="1:11">
@@ -37949,7 +37942,7 @@
         <v>2460</v>
       </c>
       <c r="I710" s="3" t="s">
-        <v>3570</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="711" spans="1:11">
@@ -37989,7 +37982,7 @@
         <v>2461</v>
       </c>
       <c r="I712" s="3" t="s">
-        <v>3572</v>
+        <v>3567</v>
       </c>
       <c r="K712" s="3" t="s">
         <v>2498</v>
@@ -38015,7 +38008,7 @@
         <v>2462</v>
       </c>
       <c r="I713" s="3" t="s">
-        <v>3573</v>
+        <v>3568</v>
       </c>
       <c r="K713" s="3" t="s">
         <v>2498</v>
@@ -38041,7 +38034,7 @@
         <v>2463</v>
       </c>
       <c r="I714" s="3" t="s">
-        <v>3574</v>
+        <v>3569</v>
       </c>
       <c r="K714" s="3" t="s">
         <v>2498</v>
@@ -38067,7 +38060,7 @@
         <v>2464</v>
       </c>
       <c r="I715" s="3" t="s">
-        <v>3575</v>
+        <v>3570</v>
       </c>
       <c r="K715" s="3" t="s">
         <v>2498</v>
@@ -38093,7 +38086,7 @@
         <v>2465</v>
       </c>
       <c r="I716" s="3" t="s">
-        <v>3576</v>
+        <v>3571</v>
       </c>
       <c r="K716" s="3" t="s">
         <v>2498</v>
@@ -38119,7 +38112,7 @@
         <v>2466</v>
       </c>
       <c r="I717" s="3" t="s">
-        <v>3577</v>
+        <v>3572</v>
       </c>
       <c r="K717" s="3" t="s">
         <v>2498</v>
@@ -38145,7 +38138,7 @@
         <v>2467</v>
       </c>
       <c r="I718" s="3" t="s">
-        <v>3578</v>
+        <v>3573</v>
       </c>
       <c r="K718" s="3" t="s">
         <v>2498</v>
@@ -38171,7 +38164,7 @@
         <v>2468</v>
       </c>
       <c r="I719" s="3" t="s">
-        <v>3579</v>
+        <v>3574</v>
       </c>
       <c r="K719" s="3" t="s">
         <v>2498</v>
@@ -38197,7 +38190,7 @@
         <v>2469</v>
       </c>
       <c r="I720" s="3" t="s">
-        <v>3580</v>
+        <v>3575</v>
       </c>
       <c r="K720" s="3" t="s">
         <v>2498</v>
@@ -38223,7 +38216,7 @@
         <v>2470</v>
       </c>
       <c r="I721" s="3" t="s">
-        <v>3581</v>
+        <v>3576</v>
       </c>
       <c r="K721" s="3" t="s">
         <v>2498</v>
@@ -38249,7 +38242,7 @@
         <v>2471</v>
       </c>
       <c r="I722" s="3" t="s">
-        <v>3582</v>
+        <v>3577</v>
       </c>
       <c r="K722" s="3" t="s">
         <v>2498</v>
@@ -38275,7 +38268,7 @@
         <v>2472</v>
       </c>
       <c r="I723" s="3" t="s">
-        <v>3583</v>
+        <v>3578</v>
       </c>
       <c r="K723" s="3" t="s">
         <v>2498</v>
@@ -38301,7 +38294,7 @@
         <v>2473</v>
       </c>
       <c r="I724" s="3" t="s">
-        <v>3584</v>
+        <v>3579</v>
       </c>
       <c r="K724" s="3" t="s">
         <v>2498</v>
@@ -38327,7 +38320,7 @@
         <v>2474</v>
       </c>
       <c r="I725" s="3" t="s">
-        <v>3585</v>
+        <v>3580</v>
       </c>
       <c r="K725" s="3" t="s">
         <v>2498</v>
@@ -38353,7 +38346,7 @@
         <v>2475</v>
       </c>
       <c r="I726" s="3" t="s">
-        <v>3586</v>
+        <v>3581</v>
       </c>
       <c r="K726" s="3" t="s">
         <v>2498</v>
@@ -38379,7 +38372,7 @@
         <v>2476</v>
       </c>
       <c r="I727" s="3" t="s">
-        <v>3587</v>
+        <v>3582</v>
       </c>
       <c r="K727" s="3" t="s">
         <v>2498</v>
@@ -38405,7 +38398,7 @@
         <v>2477</v>
       </c>
       <c r="I728" s="3" t="s">
-        <v>3588</v>
+        <v>3583</v>
       </c>
       <c r="K728" s="3" t="s">
         <v>2498</v>
@@ -38431,7 +38424,7 @@
         <v>2478</v>
       </c>
       <c r="I729" s="3" t="s">
-        <v>3589</v>
+        <v>3584</v>
       </c>
       <c r="K729" s="3" t="s">
         <v>2498</v>
@@ -38457,7 +38450,7 @@
         <v>2479</v>
       </c>
       <c r="I730" s="3" t="s">
-        <v>3590</v>
+        <v>3585</v>
       </c>
       <c r="K730" s="3" t="s">
         <v>2498</v>
@@ -38483,7 +38476,7 @@
         <v>2480</v>
       </c>
       <c r="I731" s="3" t="s">
-        <v>3591</v>
+        <v>3586</v>
       </c>
       <c r="K731" s="3" t="s">
         <v>2498</v>
@@ -38509,7 +38502,7 @@
         <v>2481</v>
       </c>
       <c r="I732" s="3" t="s">
-        <v>3592</v>
+        <v>3587</v>
       </c>
       <c r="K732" s="3" t="s">
         <v>2498</v>
@@ -38535,7 +38528,7 @@
         <v>2482</v>
       </c>
       <c r="I733" s="3" t="s">
-        <v>3593</v>
+        <v>3588</v>
       </c>
       <c r="K733" s="3" t="s">
         <v>2498</v>
@@ -38561,7 +38554,7 @@
         <v>2483</v>
       </c>
       <c r="I734" s="3" t="s">
-        <v>3594</v>
+        <v>3589</v>
       </c>
       <c r="K734" s="3" t="s">
         <v>2498</v>
@@ -38587,7 +38580,7 @@
         <v>2484</v>
       </c>
       <c r="I735" s="3" t="s">
-        <v>3595</v>
+        <v>3590</v>
       </c>
       <c r="K735" s="3" t="s">
         <v>2498</v>
@@ -38613,7 +38606,7 @@
         <v>2485</v>
       </c>
       <c r="I736" s="3" t="s">
-        <v>3596</v>
+        <v>3591</v>
       </c>
       <c r="K736" s="3" t="s">
         <v>2498</v>
@@ -38639,7 +38632,7 @@
         <v>2486</v>
       </c>
       <c r="I737" s="3" t="s">
-        <v>3597</v>
+        <v>3592</v>
       </c>
       <c r="K737" s="3" t="s">
         <v>2498</v>
@@ -38665,7 +38658,7 @@
         <v>2487</v>
       </c>
       <c r="I738" s="3" t="s">
-        <v>3598</v>
+        <v>3593</v>
       </c>
       <c r="K738" s="3" t="s">
         <v>2498</v>
@@ -38691,7 +38684,7 @@
         <v>2488</v>
       </c>
       <c r="I739" s="3" t="s">
-        <v>3599</v>
+        <v>3594</v>
       </c>
       <c r="K739" s="3" t="s">
         <v>2498</v>
@@ -38717,7 +38710,7 @@
         <v>2489</v>
       </c>
       <c r="I740" s="3" t="s">
-        <v>3600</v>
+        <v>3595</v>
       </c>
       <c r="K740" s="3" t="s">
         <v>2498</v>
@@ -38743,7 +38736,7 @@
         <v>2490</v>
       </c>
       <c r="I741" s="3" t="s">
-        <v>3601</v>
+        <v>3596</v>
       </c>
       <c r="K741" s="3" t="s">
         <v>2498</v>
@@ -38769,7 +38762,7 @@
         <v>2491</v>
       </c>
       <c r="I742" s="3" t="s">
-        <v>3602</v>
+        <v>3597</v>
       </c>
       <c r="K742" s="3" t="s">
         <v>2498</v>
@@ -38795,7 +38788,7 @@
         <v>2492</v>
       </c>
       <c r="I743" s="3" t="s">
-        <v>3603</v>
+        <v>3598</v>
       </c>
       <c r="K743" s="3" t="s">
         <v>2498</v>
@@ -38821,7 +38814,7 @@
         <v>2493</v>
       </c>
       <c r="I744" s="3" t="s">
-        <v>3604</v>
+        <v>3599</v>
       </c>
       <c r="K744" s="3" t="s">
         <v>2498</v>
@@ -38847,7 +38840,7 @@
         <v>2494</v>
       </c>
       <c r="I745" s="3" t="s">
-        <v>3605</v>
+        <v>3600</v>
       </c>
       <c r="K745" s="3" t="s">
         <v>2498</v>
@@ -38873,7 +38866,7 @@
         <v>3250</v>
       </c>
       <c r="I746" s="3" t="s">
-        <v>3606</v>
+        <v>3601</v>
       </c>
       <c r="K746" s="3" t="s">
         <v>2498</v>
@@ -38899,7 +38892,7 @@
         <v>2495</v>
       </c>
       <c r="I747" s="3" t="s">
-        <v>3607</v>
+        <v>3602</v>
       </c>
       <c r="K747" s="3" t="s">
         <v>2498</v>
@@ -38925,7 +38918,7 @@
         <v>2496</v>
       </c>
       <c r="I748" s="3" t="s">
-        <v>3608</v>
+        <v>3603</v>
       </c>
       <c r="K748" s="3" t="s">
         <v>2498</v>
